--- a/data/survey_data.xlsx
+++ b/data/survey_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgarcia/Documents/IHCC/Atlas/Excel surveys to upload to Github/Update November 2023/Survey file - to upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D42ED4ED-D38A-CE4E-9036-F2E33FD1DB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A74E15-9C99-A643-A74C-DC4479B71B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="580" windowWidth="26300" windowHeight="19700" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19700" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="535">
   <si>
     <t>IHCC Data Harmonization</t>
   </si>
@@ -626,9 +626,6 @@
   </si>
   <si>
     <t>1-25% of cohort</t>
-  </si>
-  <si>
-    <t>None - 0% of cohort</t>
   </si>
   <si>
     <t>76-100% of cohort</t>
@@ -1269,22 +1266,6 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>Y - 76-100% of cohort</t>
-  </si>
-  <si>
-    <t>Y - 51-75% of cohort</t>
-  </si>
-  <si>
-    <t>Y - 100% of cohort</t>
-  </si>
-  <si>
-    <t>Y - 1-25% of cohort</t>
-  </si>
-  <si>
-    <t>65% of cohort (undergoing)</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>10,000 proteomics and 10,000 mRNA</t>
   </si>
   <si>
@@ -1340,9 +1321,6 @@
   </si>
   <si>
     <t>Y - 26-50% of cohort</t>
-  </si>
-  <si>
-    <t>Y - 40% of cohort</t>
   </si>
   <si>
     <t>% Uknown</t>
@@ -1767,6 +1745,21 @@
   <si>
     <t>1995/1996</t>
   </si>
+  <si>
+    <t>Yes - 1-25% of cohort</t>
+  </si>
+  <si>
+    <t>Yes - 26-50% of cohort</t>
+  </si>
+  <si>
+    <t>Yes - 51-75% of cohort</t>
+  </si>
+  <si>
+    <t>Yes - 100% of cohort</t>
+  </si>
+  <si>
+    <t>Y - Yes - 76-100% of cohort</t>
+  </si>
 </sst>
 </file>
 
@@ -2037,7 +2030,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2247,7 +2240,6 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2914,9 +2906,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CJ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BU30" sqref="BU30"/>
+      <selection pane="topRight" activeCell="BW13" sqref="BW13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2935,265 +2927,265 @@
         <v>5</v>
       </c>
       <c r="B2" s="58" t="s">
+        <v>411</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>412</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>413</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>415</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>416</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>417</v>
+      </c>
+      <c r="I2" s="58" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="J2" s="58" t="s">
         <v>419</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="K2" s="58" t="s">
         <v>420</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="L2" s="58" t="s">
         <v>421</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="M2" s="58" t="s">
         <v>422</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="N2" s="58" t="s">
         <v>423</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="O2" s="58" t="s">
         <v>424</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="P2" s="58" t="s">
         <v>425</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="Q2" s="58" t="s">
         <v>426</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="R2" s="58" t="s">
         <v>427</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="S2" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="T2" s="58" t="s">
         <v>429</v>
       </c>
-      <c r="N2" s="58" t="s">
+      <c r="U2" s="58" t="s">
         <v>430</v>
       </c>
-      <c r="O2" s="58" t="s">
+      <c r="V2" s="58" t="s">
         <v>431</v>
       </c>
-      <c r="P2" s="58" t="s">
+      <c r="W2" s="58" t="s">
         <v>432</v>
       </c>
-      <c r="Q2" s="58" t="s">
+      <c r="X2" s="58" t="s">
         <v>433</v>
       </c>
-      <c r="R2" s="58" t="s">
+      <c r="Y2" s="58" t="s">
         <v>434</v>
       </c>
-      <c r="S2" s="58" t="s">
+      <c r="Z2" s="58" t="s">
         <v>435</v>
       </c>
-      <c r="T2" s="58" t="s">
+      <c r="AA2" s="58" t="s">
         <v>436</v>
       </c>
-      <c r="U2" s="58" t="s">
+      <c r="AB2" s="58" t="s">
         <v>437</v>
       </c>
-      <c r="V2" s="58" t="s">
+      <c r="AC2" s="58" t="s">
         <v>438</v>
       </c>
-      <c r="W2" s="58" t="s">
+      <c r="AD2" s="58" t="s">
         <v>439</v>
       </c>
-      <c r="X2" s="58" t="s">
+      <c r="AE2" s="58" t="s">
         <v>440</v>
       </c>
-      <c r="Y2" s="58" t="s">
+      <c r="AF2" s="58" t="s">
         <v>441</v>
       </c>
-      <c r="Z2" s="58" t="s">
+      <c r="AG2" s="58" t="s">
         <v>442</v>
       </c>
-      <c r="AA2" s="58" t="s">
+      <c r="AH2" s="58" t="s">
         <v>443</v>
       </c>
-      <c r="AB2" s="58" t="s">
+      <c r="AI2" s="58" t="s">
         <v>444</v>
       </c>
-      <c r="AC2" s="58" t="s">
+      <c r="AJ2" s="58" t="s">
         <v>445</v>
       </c>
-      <c r="AD2" s="58" t="s">
+      <c r="AK2" s="58" t="s">
         <v>446</v>
       </c>
-      <c r="AE2" s="58" t="s">
+      <c r="AL2" s="58" t="s">
         <v>447</v>
       </c>
-      <c r="AF2" s="58" t="s">
+      <c r="AM2" s="58" t="s">
         <v>448</v>
       </c>
-      <c r="AG2" s="58" t="s">
+      <c r="AN2" s="58" t="s">
         <v>449</v>
       </c>
-      <c r="AH2" s="58" t="s">
+      <c r="AO2" s="58" t="s">
         <v>450</v>
       </c>
-      <c r="AI2" s="58" t="s">
+      <c r="AP2" s="58" t="s">
         <v>451</v>
       </c>
-      <c r="AJ2" s="58" t="s">
+      <c r="AQ2" s="58" t="s">
+        <v>313</v>
+      </c>
+      <c r="AR2" s="58" t="s">
         <v>452</v>
       </c>
-      <c r="AK2" s="58" t="s">
+      <c r="AS2" s="58" t="s">
         <v>453</v>
       </c>
-      <c r="AL2" s="58" t="s">
+      <c r="AT2" s="58" t="s">
         <v>454</v>
       </c>
-      <c r="AM2" s="58" t="s">
+      <c r="AU2" s="58" t="s">
         <v>455</v>
       </c>
-      <c r="AN2" s="58" t="s">
+      <c r="AV2" s="58" t="s">
         <v>456</v>
       </c>
-      <c r="AO2" s="58" t="s">
+      <c r="AW2" s="58" t="s">
         <v>457</v>
       </c>
-      <c r="AP2" s="58" t="s">
+      <c r="AX2" s="58" t="s">
+        <v>496</v>
+      </c>
+      <c r="AY2" s="58" t="s">
         <v>458</v>
       </c>
-      <c r="AQ2" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="AR2" s="58" t="s">
+      <c r="AZ2" s="58" t="s">
         <v>459</v>
       </c>
-      <c r="AS2" s="58" t="s">
+      <c r="BA2" s="58" t="s">
         <v>460</v>
       </c>
-      <c r="AT2" s="58" t="s">
+      <c r="BB2" s="58" t="s">
         <v>461</v>
       </c>
-      <c r="AU2" s="58" t="s">
+      <c r="BC2" s="58" t="s">
         <v>462</v>
       </c>
-      <c r="AV2" s="58" t="s">
+      <c r="BD2" s="58" t="s">
         <v>463</v>
       </c>
-      <c r="AW2" s="58" t="s">
+      <c r="BE2" s="58" t="s">
         <v>464</v>
       </c>
-      <c r="AX2" s="58" t="s">
-        <v>503</v>
-      </c>
-      <c r="AY2" s="58" t="s">
+      <c r="BF2" s="58" t="s">
         <v>465</v>
       </c>
-      <c r="AZ2" s="58" t="s">
+      <c r="BG2" s="58" t="s">
         <v>466</v>
       </c>
-      <c r="BA2" s="58" t="s">
+      <c r="BH2" s="58" t="s">
         <v>467</v>
       </c>
-      <c r="BB2" s="58" t="s">
+      <c r="BI2" s="58" t="s">
         <v>468</v>
       </c>
-      <c r="BC2" s="58" t="s">
+      <c r="BJ2" s="58" t="s">
         <v>469</v>
       </c>
-      <c r="BD2" s="58" t="s">
+      <c r="BK2" s="58" t="s">
         <v>470</v>
       </c>
-      <c r="BE2" s="58" t="s">
+      <c r="BL2" s="58" t="s">
         <v>471</v>
       </c>
-      <c r="BF2" s="58" t="s">
+      <c r="BM2" s="58" t="s">
         <v>472</v>
       </c>
-      <c r="BG2" s="58" t="s">
+      <c r="BN2" s="58" t="s">
         <v>473</v>
       </c>
-      <c r="BH2" s="58" t="s">
+      <c r="BO2" s="58" t="s">
         <v>474</v>
       </c>
-      <c r="BI2" s="58" t="s">
+      <c r="BP2" s="58" t="s">
         <v>475</v>
       </c>
-      <c r="BJ2" s="58" t="s">
+      <c r="BQ2" s="58" t="s">
         <v>476</v>
       </c>
-      <c r="BK2" s="58" t="s">
+      <c r="BR2" s="58" t="s">
         <v>477</v>
       </c>
-      <c r="BL2" s="58" t="s">
+      <c r="BS2" s="58" t="s">
         <v>478</v>
       </c>
-      <c r="BM2" s="58" t="s">
+      <c r="BT2" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="BN2" s="58" t="s">
+      <c r="BU2" s="58" t="s">
         <v>480</v>
       </c>
-      <c r="BO2" s="58" t="s">
+      <c r="BV2" s="58" t="s">
         <v>481</v>
       </c>
-      <c r="BP2" s="58" t="s">
+      <c r="BW2" s="58" t="s">
         <v>482</v>
       </c>
-      <c r="BQ2" s="58" t="s">
+      <c r="BX2" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="BR2" s="58" t="s">
+      <c r="BY2" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="BS2" s="58" t="s">
+      <c r="BZ2" s="58" t="s">
         <v>485</v>
       </c>
-      <c r="BT2" s="58" t="s">
+      <c r="CA2" s="58" t="s">
         <v>486</v>
       </c>
-      <c r="BU2" s="58" t="s">
+      <c r="CB2" s="58" t="s">
         <v>487</v>
       </c>
-      <c r="BV2" s="58" t="s">
+      <c r="CC2" s="58" t="s">
         <v>488</v>
       </c>
-      <c r="BW2" s="58" t="s">
+      <c r="CD2" s="58" t="s">
         <v>489</v>
       </c>
-      <c r="BX2" s="58" t="s">
+      <c r="CE2" s="58" t="s">
         <v>490</v>
       </c>
-      <c r="BY2" s="58" t="s">
+      <c r="CF2" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="BZ2" s="58" t="s">
+      <c r="CG2" s="58" t="s">
         <v>492</v>
       </c>
-      <c r="CA2" s="58" t="s">
+      <c r="CH2" s="58" t="s">
         <v>493</v>
       </c>
-      <c r="CB2" s="58" t="s">
+      <c r="CI2" s="58" t="s">
         <v>494</v>
       </c>
-      <c r="CC2" s="58" t="s">
+      <c r="CJ2" s="58" t="s">
         <v>495</v>
-      </c>
-      <c r="CD2" s="58" t="s">
-        <v>496</v>
-      </c>
-      <c r="CE2" s="58" t="s">
-        <v>497</v>
-      </c>
-      <c r="CF2" s="58" t="s">
-        <v>498</v>
-      </c>
-      <c r="CG2" s="58" t="s">
-        <v>499</v>
-      </c>
-      <c r="CH2" s="58" t="s">
-        <v>500</v>
-      </c>
-      <c r="CI2" s="58" t="s">
-        <v>501</v>
-      </c>
-      <c r="CJ2" s="58" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:88" s="15" customFormat="1" ht="57" x14ac:dyDescent="0.2">
@@ -3204,52 +3196,52 @@
         <v>47</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D3" s="86" t="s">
         <v>64</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F3" s="87" t="s">
-        <v>286</v>
-      </c>
-      <c r="G3" s="91" t="s">
-        <v>529</v>
+        <v>285</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>522</v>
       </c>
       <c r="H3" s="58" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="I3" s="88" t="s">
+        <v>288</v>
+      </c>
+      <c r="J3" s="88" t="s">
         <v>289</v>
       </c>
-      <c r="J3" s="88" t="s">
-        <v>290</v>
-      </c>
       <c r="K3" s="58" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="L3" s="88" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M3" s="58" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="N3" s="58" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="O3" s="58" t="s">
         <v>52</v>
       </c>
       <c r="P3" s="58" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Q3" s="58" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="R3" s="58" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="S3" s="58" t="s">
         <v>57</v>
@@ -3258,19 +3250,19 @@
         <v>61</v>
       </c>
       <c r="U3" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="V3" s="88" t="s">
         <v>297</v>
       </c>
-      <c r="V3" s="88" t="s">
-        <v>298</v>
-      </c>
       <c r="W3" s="58" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="X3" s="87" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y3" s="87" t="s">
         <v>300</v>
-      </c>
-      <c r="Y3" s="87" t="s">
-        <v>301</v>
       </c>
       <c r="Z3" s="58" t="s">
         <v>45</v>
@@ -3285,73 +3277,73 @@
         <v>43</v>
       </c>
       <c r="AD3" s="58" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="AE3" s="90" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF3" s="88" t="s">
         <v>303</v>
       </c>
-      <c r="AF3" s="88" t="s">
-        <v>304</v>
-      </c>
       <c r="AG3" s="58" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="AH3" s="58" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="AI3" s="42" t="s">
-        <v>517</v>
-      </c>
-      <c r="AJ3" s="91" t="s">
+        <v>510</v>
+      </c>
+      <c r="AJ3" s="58" t="s">
         <v>59</v>
       </c>
       <c r="AK3" s="58" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="AL3" s="88" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AM3" s="58" t="s">
         <v>56</v>
       </c>
       <c r="AN3" s="58" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="AO3" s="58" t="s">
         <v>46</v>
       </c>
       <c r="AP3" s="58" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="AQ3" s="90" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AR3" s="42" t="s">
         <v>63</v>
       </c>
       <c r="AS3" s="42" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="AT3" s="58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AU3" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AV3" s="42" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="AW3" s="58" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="AX3" s="90" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AY3" s="58" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="AZ3" s="58" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="BA3" s="42" t="s">
         <v>44</v>
@@ -3360,22 +3352,22 @@
         <v>62</v>
       </c>
       <c r="BC3" s="88" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BD3" s="58" t="s">
         <v>55</v>
       </c>
       <c r="BE3" s="88" t="s">
+        <v>322</v>
+      </c>
+      <c r="BF3" s="87" t="s">
         <v>323</v>
-      </c>
-      <c r="BF3" s="87" t="s">
-        <v>324</v>
       </c>
       <c r="BG3" s="58" t="s">
         <v>51</v>
       </c>
       <c r="BH3" s="58" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="BI3" s="58" t="s">
         <v>54</v>
@@ -3384,25 +3376,25 @@
         <v>53</v>
       </c>
       <c r="BK3" s="88" t="s">
+        <v>325</v>
+      </c>
+      <c r="BL3" s="88" t="s">
         <v>326</v>
       </c>
-      <c r="BL3" s="88" t="s">
-        <v>327</v>
-      </c>
       <c r="BM3" s="58" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BN3" s="42" t="s">
         <v>58</v>
       </c>
       <c r="BO3" s="90" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BP3" s="58" t="s">
         <v>49</v>
       </c>
       <c r="BQ3" s="42" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="BR3" s="63" t="s">
         <v>50</v>
@@ -3417,49 +3409,49 @@
         <v>67</v>
       </c>
       <c r="BV3" s="53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BW3" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="BX3" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="BX3" s="53" t="s">
+      <c r="BY3" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="BY3" s="53" t="s">
+      <c r="BZ3" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="BZ3" s="53" t="s">
+      <c r="CA3" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="CA3" s="53" t="s">
+      <c r="CB3" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="CB3" s="53" t="s">
+      <c r="CC3" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="CC3" s="53" t="s">
+      <c r="CD3" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="CD3" s="53" t="s">
+      <c r="CE3" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="CE3" s="53" t="s">
-        <v>218</v>
-      </c>
       <c r="CF3" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="CG3" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="CG3" s="53" t="s">
+      <c r="CH3" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="CH3" s="53" t="s">
-        <v>223</v>
-      </c>
       <c r="CI3" s="53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CJ3" s="53" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:88" ht="14" x14ac:dyDescent="0.15">
@@ -3636,7 +3628,7 @@
         <v>68</v>
       </c>
       <c r="AK6" s="42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AL6" s="42" t="s">
         <v>68</v>
@@ -3980,28 +3972,28 @@
         <v>105</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="K10" s="40" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L10" s="40" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M10" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N10" s="40" t="s">
         <v>78</v>
@@ -4021,17 +4013,17 @@
         <v>100</v>
       </c>
       <c r="U10" s="40" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="V10" s="40" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="W10" s="40" t="s">
         <v>80</v>
       </c>
       <c r="X10" s="40"/>
       <c r="Y10" s="40" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="Z10" s="40" t="s">
         <v>82</v>
@@ -4046,7 +4038,7 @@
         <v>79</v>
       </c>
       <c r="AD10" s="40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AE10" s="40"/>
       <c r="AF10" s="58"/>
@@ -4054,26 +4046,26 @@
         <v>95</v>
       </c>
       <c r="AH10" s="79" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="AI10" s="40" t="s">
         <v>97</v>
       </c>
       <c r="AJ10" s="58"/>
       <c r="AK10" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AL10" s="40" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AM10" s="40" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AN10" s="40" t="s">
         <v>92</v>
       </c>
       <c r="AO10" s="40" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AP10" s="40" t="s">
         <v>103</v>
@@ -4083,7 +4075,7 @@
         <v>104</v>
       </c>
       <c r="AS10" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AT10" s="40" t="s">
         <v>102</v>
@@ -4092,16 +4084,16 @@
         <v>102</v>
       </c>
       <c r="AV10" s="81" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AW10" s="79" t="s">
         <v>90</v>
       </c>
       <c r="AX10" s="82" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="AY10" s="81" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AZ10" s="81"/>
       <c r="BA10" s="81" t="s">
@@ -4111,14 +4103,14 @@
         <v>101</v>
       </c>
       <c r="BC10" s="81" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="BD10" s="82" t="s">
         <v>96</v>
       </c>
       <c r="BE10" s="40"/>
       <c r="BF10" s="40" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="BG10" s="40" t="s">
         <v>88</v>
@@ -4134,23 +4126,23 @@
       </c>
       <c r="BK10" s="58"/>
       <c r="BL10" s="40" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="BM10" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BN10" s="40" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="BO10" s="58"/>
       <c r="BP10" s="40" t="s">
         <v>86</v>
       </c>
       <c r="BQ10" s="40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="BR10" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BS10" s="40" t="s">
         <v>107</v>
@@ -4162,47 +4154,47 @@
         <v>109</v>
       </c>
       <c r="BV10" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BW10" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="BX10" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="BX10" s="57" t="s">
+      <c r="BY10" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="BY10" s="26" t="s">
+      <c r="BZ10" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="BZ10" s="26" t="s">
-        <v>228</v>
-      </c>
       <c r="CA10" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="CB10" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="CC10" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="CC10" s="57" t="s">
+      <c r="CD10" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="CD10" s="26" t="s">
-        <v>234</v>
-      </c>
       <c r="CE10" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="CF10" s="26" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="CG10" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="CH10" s="33"/>
       <c r="CI10" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CJ10" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4210,40 +4202,40 @@
         <v>110</v>
       </c>
       <c r="B11" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="C11" t="s">
         <v>330</v>
-      </c>
-      <c r="C11" t="s">
-        <v>331</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H11" s="42" t="s">
         <v>112</v>
       </c>
       <c r="I11" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="J11" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="J11" s="42" t="s">
+      <c r="K11" t="s">
+        <v>196</v>
+      </c>
+      <c r="L11" s="42" t="s">
         <v>334</v>
       </c>
-      <c r="K11" t="s">
-        <v>197</v>
-      </c>
-      <c r="L11" s="42" t="s">
+      <c r="M11" t="s">
         <v>335</v>
-      </c>
-      <c r="M11" t="s">
-        <v>336</v>
       </c>
       <c r="N11" t="s">
         <v>111</v>
@@ -4252,10 +4244,10 @@
         <v>122</v>
       </c>
       <c r="P11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R11" s="42" t="s">
         <v>120</v>
@@ -4267,19 +4259,19 @@
         <v>133</v>
       </c>
       <c r="U11" t="s">
+        <v>337</v>
+      </c>
+      <c r="V11" s="42" t="s">
         <v>338</v>
       </c>
-      <c r="V11" s="42" t="s">
+      <c r="W11" t="s">
         <v>339</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>340</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>341</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>342</v>
       </c>
       <c r="Z11" t="s">
         <v>116</v>
@@ -4294,19 +4286,19 @@
         <v>114</v>
       </c>
       <c r="AD11" t="s">
+        <v>342</v>
+      </c>
+      <c r="AE11" t="s">
         <v>343</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" s="42" t="s">
         <v>344</v>
-      </c>
-      <c r="AF11" s="42" t="s">
-        <v>345</v>
       </c>
       <c r="AG11" t="s">
         <v>125</v>
       </c>
       <c r="AH11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AI11" s="42" t="s">
         <v>128</v>
@@ -4315,10 +4307,10 @@
         <v>131</v>
       </c>
       <c r="AK11" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AL11" s="42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AM11" t="s">
         <v>127</v>
@@ -4327,19 +4319,19 @@
         <v>123</v>
       </c>
       <c r="AO11" s="42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AP11" t="s">
         <v>135</v>
       </c>
       <c r="AQ11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AR11" s="42" t="s">
         <v>136</v>
       </c>
       <c r="AS11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AT11" t="s">
         <v>134</v>
@@ -4348,73 +4340,73 @@
         <v>134</v>
       </c>
       <c r="AV11" s="42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AW11" t="s">
         <v>121</v>
       </c>
       <c r="AX11" s="42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AY11" t="s">
         <v>113</v>
       </c>
       <c r="AZ11" s="42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="BA11" s="42" t="s">
         <v>115</v>
       </c>
       <c r="BB11" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="BC11" s="42" t="s">
         <v>351</v>
-      </c>
-      <c r="BC11" s="42" t="s">
-        <v>352</v>
       </c>
       <c r="BD11" t="s">
         <v>126</v>
       </c>
       <c r="BE11" s="42" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="BF11" t="s">
         <v>130</v>
       </c>
       <c r="BG11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BH11" t="s">
         <v>118</v>
       </c>
       <c r="BI11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="BJ11" t="s">
         <v>124</v>
       </c>
       <c r="BK11" s="42" t="s">
+        <v>355</v>
+      </c>
+      <c r="BL11" s="42" t="s">
         <v>356</v>
       </c>
-      <c r="BL11" s="42" t="s">
-        <v>357</v>
-      </c>
       <c r="BM11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BN11" s="42" t="s">
         <v>130</v>
       </c>
       <c r="BO11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="BP11" t="s">
         <v>119</v>
       </c>
       <c r="BQ11" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BR11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BS11" t="s">
         <v>137</v>
@@ -4426,49 +4418,49 @@
         <v>139</v>
       </c>
       <c r="BV11" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BW11" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="BX11" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="BX11" s="31" t="s">
+      <c r="BY11" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="BY11" s="31" t="s">
+      <c r="BZ11" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="BZ11" s="31" t="s">
+      <c r="CA11" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="CA11" s="31" t="s">
-        <v>243</v>
-      </c>
       <c r="CB11" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="CC11" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="CC11" s="27" t="s">
+      <c r="CD11" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="CD11" s="31" t="s">
+      <c r="CE11" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="CE11" s="31" t="s">
-        <v>249</v>
-      </c>
       <c r="CF11" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="CG11" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="CG11" s="31" t="s">
+      <c r="CH11" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="CH11" s="31" t="s">
-        <v>254</v>
-      </c>
       <c r="CI11" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="CJ11" s="31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:88" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4476,7 +4468,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C12" s="69" t="s">
         <v>150</v>
@@ -4494,10 +4486,10 @@
         <v>145</v>
       </c>
       <c r="H12" s="68" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="I12" s="68" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J12" s="68" t="s">
         <v>151</v>
@@ -4521,13 +4513,13 @@
         <v>145</v>
       </c>
       <c r="Q12" s="69" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R12" s="68" t="s">
         <v>148</v>
       </c>
       <c r="S12" s="69" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T12" s="68" t="s">
         <v>159</v>
@@ -4536,7 +4528,7 @@
         <v>159</v>
       </c>
       <c r="V12" s="68" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="W12" s="69" t="s">
         <v>143</v>
@@ -4545,16 +4537,16 @@
         <v>160</v>
       </c>
       <c r="Y12" s="69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Z12" s="70" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AA12" s="68" t="s">
         <v>150</v>
       </c>
       <c r="AB12" s="69" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AC12" s="69" t="s">
         <v>142</v>
@@ -4566,7 +4558,7 @@
         <v>146</v>
       </c>
       <c r="AF12" s="68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AG12" s="69" t="s">
         <v>153</v>
@@ -4581,7 +4573,7 @@
         <v>157</v>
       </c>
       <c r="AK12" s="68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AL12" s="68" t="s">
         <v>160</v>
@@ -4599,7 +4591,7 @@
         <v>145</v>
       </c>
       <c r="AQ12" s="69" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AR12" s="68" t="s">
         <v>160</v>
@@ -4641,10 +4633,10 @@
         <v>151</v>
       </c>
       <c r="BE12" s="68" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="BF12" s="71" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="BG12" s="69" t="s">
         <v>149</v>
@@ -4659,34 +4651,34 @@
         <v>153</v>
       </c>
       <c r="BK12" s="68" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BL12" s="68" t="s">
         <v>154</v>
       </c>
       <c r="BM12" s="69" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BN12" s="68" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BO12" s="69" t="s">
         <v>145</v>
       </c>
       <c r="BP12" s="69" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BQ12" s="68" t="s">
         <v>145</v>
       </c>
       <c r="BR12" s="69" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BS12" s="68" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BT12" s="68" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BU12" s="69" t="s">
         <v>161</v>
@@ -4698,37 +4690,37 @@
         <v>145</v>
       </c>
       <c r="BX12" s="72" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BY12" s="72" t="s">
         <v>145</v>
       </c>
       <c r="BZ12" s="72" t="s">
+        <v>258</v>
+      </c>
+      <c r="CA12" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="CA12" s="72" t="s">
-        <v>260</v>
-      </c>
       <c r="CB12" s="72" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="CC12" s="72" t="s">
         <v>145</v>
       </c>
       <c r="CD12" s="68" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="CE12" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="CF12" s="72" t="s">
         <v>261</v>
-      </c>
-      <c r="CF12" s="72" t="s">
-        <v>262</v>
       </c>
       <c r="CG12" s="72" t="s">
         <v>142</v>
       </c>
       <c r="CH12" s="72" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="CI12" s="72" t="s">
         <v>151</v>
@@ -4742,172 +4734,172 @@
         <v>23</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>394</v>
-      </c>
-      <c r="C13" t="s">
-        <v>371</v>
+        <v>531</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>162</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="J13" s="58" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="N13" t="s">
-        <v>371</v>
+        <v>534</v>
       </c>
       <c r="O13" t="s">
-        <v>371</v>
+        <v>534</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>371</v>
-      </c>
-      <c r="R13" t="s">
-        <v>371</v>
-      </c>
-      <c r="S13" t="s">
-        <v>371</v>
-      </c>
-      <c r="T13" t="s">
-        <v>371</v>
+        <v>533</v>
+      </c>
+      <c r="Q13" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="R13" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="S13" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="T13" s="58" t="s">
+        <v>162</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>371</v>
-      </c>
-      <c r="AA13" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>371</v>
+        <v>533</v>
+      </c>
+      <c r="Z13" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA13" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB13" s="58" t="s">
+        <v>162</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AF13" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AI13" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AJ13" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AL13" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AM13" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>371</v>
+        <v>533</v>
+      </c>
+      <c r="AN13" s="58" t="s">
+        <v>162</v>
       </c>
       <c r="AO13" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>371</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>374</v>
+        <v>533</v>
+      </c>
+      <c r="AP13" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR13" s="58" t="s">
+        <v>530</v>
       </c>
       <c r="AS13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AT13" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AU13" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AV13" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>371</v>
+        <v>533</v>
+      </c>
+      <c r="AW13" s="58" t="s">
+        <v>162</v>
       </c>
       <c r="AX13" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AY13" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AZ13" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BA13" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>371</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>371</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>371</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>371</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>371</v>
+        <v>533</v>
+      </c>
+      <c r="BB13" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="BC13" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="BD13" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="BE13" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="BF13" s="58" t="s">
+        <v>162</v>
       </c>
       <c r="BG13" t="s">
         <v>163</v>
       </c>
       <c r="BH13" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BI13" t="s">
         <v>163</v>
       </c>
-      <c r="BJ13" t="s">
-        <v>371</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>173</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>371</v>
+      <c r="BJ13" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="BK13" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="BL13" s="58" t="s">
+        <v>162</v>
       </c>
       <c r="BM13" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="BN13" t="s">
-        <v>371</v>
+        <v>533</v>
+      </c>
+      <c r="BN13" s="58" t="s">
+        <v>162</v>
       </c>
       <c r="BO13" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BP13" t="s">
         <v>163</v>
@@ -5013,106 +5005,266 @@
       <c r="A15" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="D15" s="42"/>
+      <c r="B15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="H15" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
+      <c r="I15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="L15" s="42" t="s">
         <v>74</v>
       </c>
+      <c r="M15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="Q15" t="s">
         <v>74</v>
       </c>
-      <c r="R15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="AA15" s="43"/>
+      <c r="R15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="S15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="T15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="U15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="V15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="W15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="X15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB15" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="AC15" t="s">
         <v>74</v>
       </c>
-      <c r="AF15" s="42"/>
-      <c r="AI15" s="42"/>
-      <c r="AK15" s="42"/>
-      <c r="AL15" s="42"/>
-      <c r="AO15" s="42"/>
+      <c r="AD15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP15" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="AQ15" t="s">
         <v>74</v>
       </c>
-      <c r="AR15" s="42"/>
-      <c r="AS15" s="42"/>
-      <c r="AV15" s="42"/>
-      <c r="AX15" s="42"/>
-      <c r="AZ15" s="42"/>
-      <c r="BA15" s="42"/>
+      <c r="AR15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA15" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="BB15" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="BC15" s="42"/>
-      <c r="BE15" s="42"/>
-      <c r="BJ15" s="42"/>
-      <c r="BK15" s="42"/>
-      <c r="BL15" s="42"/>
-      <c r="BN15" s="42"/>
-      <c r="BQ15" s="42"/>
+      <c r="BC15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BO15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP15" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ15" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="BR15" t="s">
         <v>75</v>
       </c>
       <c r="BS15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BT15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BU15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BV15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BW15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BX15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BY15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BZ15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CA15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CB15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CC15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CD15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CE15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CF15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CG15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CH15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CI15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CJ15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5122,130 +5274,272 @@
       <c r="B16" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="C16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="H16" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="L16" s="42"/>
+      <c r="I16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="N16" t="s">
         <v>74</v>
       </c>
+      <c r="O16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="Q16" t="s">
         <v>74</v>
       </c>
-      <c r="R16" s="42"/>
+      <c r="R16" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="S16" t="s">
         <v>74</v>
       </c>
-      <c r="T16" s="42"/>
+      <c r="T16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="U16" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="V16" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="AA16" s="43"/>
+      <c r="W16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="X16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB16" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="AC16" t="s">
         <v>74</v>
       </c>
-      <c r="AF16" s="42"/>
+      <c r="AD16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG16" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="AH16" t="s">
         <v>74</v>
       </c>
-      <c r="AI16" s="42"/>
-      <c r="AK16" s="42"/>
+      <c r="AI16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK16" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="AL16" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="AO16" s="42"/>
-      <c r="AR16" s="42"/>
-      <c r="AS16" s="42"/>
+      <c r="AM16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU16" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="AV16" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="AX16" s="42"/>
-      <c r="AZ16" s="42"/>
-      <c r="BA16" s="42"/>
+      <c r="AW16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA16" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="BB16" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="BC16" s="42"/>
-      <c r="BE16" s="42"/>
+      <c r="BC16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF16" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="BG16" t="s">
         <v>74</v>
       </c>
       <c r="BH16" t="s">
         <v>74</v>
       </c>
-      <c r="BJ16" s="42"/>
-      <c r="BK16" s="42"/>
+      <c r="BI16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK16" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="BL16" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="BN16" s="42"/>
-      <c r="BQ16" s="42"/>
+      <c r="BM16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BO16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP16" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ16" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="BR16" t="s">
         <v>75</v>
       </c>
       <c r="BS16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BT16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BU16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BV16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BW16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BX16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BY16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BZ16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CA16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CB16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CC16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CD16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CE16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CF16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CG16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CH16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CI16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CJ16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="C17" t="s">
         <v>74</v>
       </c>
@@ -5288,10 +5582,18 @@
       <c r="P17" t="s">
         <v>74</v>
       </c>
+      <c r="Q17" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="R17" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="T17" s="42"/>
+      <c r="S17" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="T17" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="U17" t="s">
         <v>74</v>
       </c>
@@ -5322,6 +5624,9 @@
       <c r="AD17" t="s">
         <v>74</v>
       </c>
+      <c r="AE17" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="AF17" s="42" t="s">
         <v>74</v>
       </c>
@@ -5334,6 +5639,9 @@
       <c r="AI17" s="42" t="s">
         <v>74</v>
       </c>
+      <c r="AJ17" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="AK17" s="42" t="s">
         <v>74</v>
       </c>
@@ -5367,7 +5675,9 @@
       <c r="AU17" t="s">
         <v>74</v>
       </c>
-      <c r="AV17" s="42"/>
+      <c r="AV17" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="AW17" t="s">
         <v>74</v>
       </c>
@@ -5435,179 +5745,321 @@
         <v>74</v>
       </c>
       <c r="BS17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BT17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BU17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BV17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BW17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BX17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BY17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BZ17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CA17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CB17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CC17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CD17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CE17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CF17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CG17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CH17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CI17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CJ17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="D18" s="42"/>
+      <c r="B18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="E18" t="s">
-        <v>364</v>
+        <v>363</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>75</v>
       </c>
       <c r="H18" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="42"/>
+      <c r="I18" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="J18" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="L18" s="42"/>
+      <c r="K18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="N18" t="s">
         <v>74</v>
       </c>
       <c r="P18" t="s">
         <v>74</v>
       </c>
-      <c r="R18" s="42"/>
-      <c r="T18" s="42"/>
+      <c r="Q18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="R18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="S18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="T18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="U18" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="V18" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="AA18" s="43"/>
+      <c r="W18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="X18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA18" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="AB18" t="s">
         <v>74</v>
       </c>
-      <c r="AF18" s="42"/>
-      <c r="AI18" s="42"/>
-      <c r="AK18" s="42"/>
-      <c r="AL18" s="42"/>
+      <c r="AC18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL18" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="AM18" t="s">
         <v>74</v>
       </c>
-      <c r="AO18" s="42"/>
+      <c r="AN18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP18" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="AQ18" t="s">
         <v>74</v>
       </c>
-      <c r="AR18" s="42"/>
-      <c r="AS18" s="42"/>
-      <c r="AV18" s="42"/>
-      <c r="AX18" s="42"/>
-      <c r="AZ18" s="42"/>
-      <c r="BA18" s="42"/>
+      <c r="AR18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA18" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="BB18" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="BC18" s="42"/>
-      <c r="BE18" s="42"/>
+      <c r="BC18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI18" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="BJ18" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="BK18" s="42"/>
-      <c r="BL18" s="42"/>
+      <c r="BK18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM18" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="BN18" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="BQ18" s="42"/>
+      <c r="BO18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ18" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="BR18" t="s">
         <v>74</v>
       </c>
       <c r="BS18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BT18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BU18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BV18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BW18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BX18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BY18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BZ18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CA18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CB18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CC18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CD18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CE18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CF18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CG18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CH18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CI18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CJ18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5622,24 +6074,44 @@
       <c r="L19" s="42"/>
       <c r="R19" s="42"/>
       <c r="T19" s="42" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="U19" s="42" t="s">
+        <v>75</v>
       </c>
       <c r="V19" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="W19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="X19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC19" t="s">
         <v>365</v>
       </c>
-      <c r="AA19" s="43"/>
-      <c r="AC19" t="s">
+      <c r="AE19" t="s">
         <v>366</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>367</v>
       </c>
       <c r="AF19" s="42"/>
       <c r="AI19" s="42"/>
       <c r="AK19" s="42"/>
       <c r="AL19" s="42"/>
       <c r="AN19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AO19" s="42"/>
       <c r="AR19" s="42"/>
@@ -5660,58 +6132,58 @@
         <v>75</v>
       </c>
       <c r="BS19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BT19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BU19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BV19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BW19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BX19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BY19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BZ19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CA19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CB19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CC19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CD19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CE19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CF19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CG19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CH19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CI19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CJ19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5772,31 +6244,31 @@
         <v>171</v>
       </c>
       <c r="D21" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E21" s="42" t="s">
         <v>171</v>
       </c>
       <c r="F21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H21" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="I21" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M21" t="s">
         <v>171</v>
@@ -5805,13 +6277,13 @@
         <v>171</v>
       </c>
       <c r="O21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P21" t="s">
         <v>171</v>
       </c>
       <c r="Q21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R21" s="42" t="s">
         <v>171</v>
@@ -5823,7 +6295,7 @@
         <v>171</v>
       </c>
       <c r="U21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V21" t="s">
         <v>171</v>
@@ -5835,55 +6307,55 @@
         <v>171</v>
       </c>
       <c r="Y21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z21" t="s">
         <v>171</v>
       </c>
       <c r="AA21" s="43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AC21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AD21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AE21" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF21" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG21" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH21" s="42" t="s">
         <v>171</v>
       </c>
       <c r="AI21" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>172</v>
       </c>
-      <c r="AJ21" t="s">
-        <v>173</v>
-      </c>
       <c r="AK21" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AL21" t="s">
         <v>171</v>
       </c>
       <c r="AM21" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AN21" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AO21" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AP21" s="42" t="s">
         <v>171</v>
@@ -5892,7 +6364,7 @@
         <v>171</v>
       </c>
       <c r="AR21" s="42" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AS21" t="s">
         <v>171</v>
@@ -5910,7 +6382,7 @@
         <v>171</v>
       </c>
       <c r="AX21" s="58" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AY21" t="s">
         <v>171</v>
@@ -5925,34 +6397,34 @@
         <v>171</v>
       </c>
       <c r="BC21" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BD21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BE21" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BF21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BG21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BH21" t="s">
         <v>171</v>
       </c>
       <c r="BI21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BJ21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="BK21" s="42" t="s">
         <v>171</v>
       </c>
       <c r="BL21" s="42" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BM21" s="42" t="s">
         <v>171</v>
@@ -5964,72 +6436,72 @@
         <v>171</v>
       </c>
       <c r="BP21" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BQ21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BR21" t="s">
         <v>171</v>
       </c>
       <c r="BS21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BT21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BU21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BV21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BW21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BX21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BY21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BZ21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CA21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CB21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CC21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CD21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CE21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CF21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CG21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CH21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CI21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CJ21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B22" s="42" t="s">
         <v>171</v>
@@ -6038,31 +6510,31 @@
         <v>171</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E22" s="58" t="s">
-        <v>394</v>
+        <v>173</v>
       </c>
       <c r="F22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J22" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="K22" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="L22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M22" t="s">
         <v>171</v>
@@ -6071,13 +6543,13 @@
         <v>171</v>
       </c>
       <c r="O22" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="P22" s="58" t="s">
-        <v>394</v>
+        <v>173</v>
       </c>
       <c r="Q22" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="R22" s="42" t="s">
         <v>171</v>
@@ -6089,19 +6561,19 @@
         <v>171</v>
       </c>
       <c r="U22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V22" t="s">
         <v>171</v>
       </c>
       <c r="W22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X22" t="s">
         <v>171</v>
       </c>
       <c r="Y22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z22" t="s">
         <v>171</v>
@@ -6110,46 +6582,46 @@
         <v>171</v>
       </c>
       <c r="AB22" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AC22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AD22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AE22" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF22" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AG22" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AH22" t="s">
         <v>171</v>
       </c>
       <c r="AI22" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AJ22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK22" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM22" t="s">
         <v>172</v>
       </c>
-      <c r="AK22" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>172</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>173</v>
-      </c>
       <c r="AN22" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AO22" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AP22" t="s">
         <v>171</v>
@@ -6158,7 +6630,7 @@
         <v>171</v>
       </c>
       <c r="AR22" s="42" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AS22" t="s">
         <v>171</v>
@@ -6176,7 +6648,7 @@
         <v>171</v>
       </c>
       <c r="AX22" s="58" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AY22" t="s">
         <v>171</v>
@@ -6185,40 +6657,40 @@
         <v>171</v>
       </c>
       <c r="BA22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BB22" s="42" t="s">
         <v>171</v>
       </c>
       <c r="BC22" s="42" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BD22" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BE22" s="58" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BF22" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BG22" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BH22" t="s">
         <v>171</v>
       </c>
       <c r="BI22" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BJ22" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BK22" s="42" t="s">
         <v>171</v>
       </c>
       <c r="BL22" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BM22" s="42" t="s">
         <v>171</v>
@@ -6230,338 +6702,338 @@
         <v>171</v>
       </c>
       <c r="BP22" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BQ22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BR22" t="s">
         <v>171</v>
       </c>
       <c r="BS22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BT22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BU22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BV22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BW22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BX22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BY22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BZ22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CA22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CB22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CC22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CD22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CE22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CF22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CG22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CH22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CI22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CJ22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" t="s">
         <v>176</v>
       </c>
-      <c r="B23" t="s">
-        <v>177</v>
-      </c>
       <c r="C23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D23" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" t="s">
+        <v>282</v>
+      </c>
+      <c r="G23" t="s">
+        <v>282</v>
+      </c>
+      <c r="H23" t="s">
+        <v>163</v>
+      </c>
+      <c r="I23" t="s">
+        <v>163</v>
+      </c>
+      <c r="J23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" t="s">
+        <v>163</v>
+      </c>
+      <c r="L23" t="s">
+        <v>282</v>
+      </c>
+      <c r="M23" t="s">
         <v>172</v>
       </c>
-      <c r="E23" t="s">
-        <v>372</v>
-      </c>
-      <c r="F23" t="s">
-        <v>283</v>
-      </c>
-      <c r="G23" t="s">
-        <v>283</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="N23" t="s">
+        <v>176</v>
+      </c>
+      <c r="O23" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>163</v>
+      </c>
+      <c r="R23" t="s">
         <v>172</v>
       </c>
-      <c r="I23" t="s">
+      <c r="S23" t="s">
         <v>172</v>
       </c>
-      <c r="J23" t="s">
+      <c r="T23" t="s">
         <v>172</v>
       </c>
-      <c r="K23" t="s">
+      <c r="U23" t="s">
+        <v>282</v>
+      </c>
+      <c r="V23" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="L23" t="s">
-        <v>283</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="W23" t="s">
         <v>173</v>
       </c>
-      <c r="N23" t="s">
-        <v>177</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="X23" t="s">
         <v>172</v>
       </c>
-      <c r="P23" s="58" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q23" t="s">
+      <c r="Y23" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z23" t="s">
         <v>172</v>
       </c>
-      <c r="R23" t="s">
-        <v>173</v>
-      </c>
-      <c r="S23" t="s">
-        <v>173</v>
-      </c>
-      <c r="T23" t="s">
-        <v>173</v>
-      </c>
-      <c r="U23" t="s">
-        <v>283</v>
-      </c>
-      <c r="V23" t="s">
-        <v>371</v>
-      </c>
-      <c r="W23" t="s">
-        <v>174</v>
-      </c>
-      <c r="X23" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>283</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>173</v>
-      </c>
       <c r="AA23" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB23" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH23" t="s">
         <v>172</v>
       </c>
-      <c r="AC23" t="s">
-        <v>283</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>283</v>
-      </c>
-      <c r="AE23" t="s">
+      <c r="AI23" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK23" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL23" t="s">
         <v>172</v>
       </c>
-      <c r="AF23" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>173</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>172</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>172</v>
-      </c>
-      <c r="AK23" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>173</v>
-      </c>
       <c r="AM23" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AN23" t="s">
         <v>171</v>
       </c>
       <c r="AO23" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AP23" s="42" t="s">
         <v>171</v>
       </c>
       <c r="AQ23" s="58" t="s">
-        <v>394</v>
+        <v>173</v>
       </c>
       <c r="AR23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AS23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AT23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AU23" t="s">
-        <v>173</v>
-      </c>
-      <c r="AV23" t="s">
-        <v>372</v>
+        <v>172</v>
+      </c>
+      <c r="AV23" s="58" t="s">
+        <v>176</v>
       </c>
       <c r="AW23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX23" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AY23" t="s">
         <v>171</v>
       </c>
       <c r="AZ23" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BA23" t="s">
         <v>171</v>
       </c>
       <c r="BB23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BC23" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>163</v>
+      </c>
+      <c r="BE23" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>163</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>163</v>
+      </c>
+      <c r="BH23" t="s">
         <v>172</v>
       </c>
-      <c r="BD23" t="s">
+      <c r="BI23" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>163</v>
+      </c>
+      <c r="BK23" t="s">
         <v>172</v>
       </c>
-      <c r="BE23" s="58" t="s">
+      <c r="BL23" t="s">
+        <v>163</v>
+      </c>
+      <c r="BM23" t="s">
         <v>172</v>
       </c>
-      <c r="BF23" t="s">
+      <c r="BN23" t="s">
         <v>172</v>
       </c>
-      <c r="BG23" t="s">
+      <c r="BO23" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="BP23" t="s">
         <v>172</v>
       </c>
-      <c r="BH23" t="s">
-        <v>173</v>
-      </c>
-      <c r="BI23" t="s">
+      <c r="BQ23" t="s">
+        <v>282</v>
+      </c>
+      <c r="BR23" t="s">
         <v>172</v>
       </c>
-      <c r="BJ23" t="s">
-        <v>172</v>
-      </c>
-      <c r="BK23" t="s">
-        <v>173</v>
-      </c>
-      <c r="BL23" t="s">
-        <v>172</v>
-      </c>
-      <c r="BM23" t="s">
-        <v>173</v>
-      </c>
-      <c r="BN23" t="s">
-        <v>173</v>
-      </c>
-      <c r="BO23" t="s">
-        <v>372</v>
-      </c>
-      <c r="BP23" t="s">
-        <v>173</v>
-      </c>
-      <c r="BQ23" t="s">
-        <v>283</v>
-      </c>
-      <c r="BR23" t="s">
-        <v>173</v>
-      </c>
       <c r="BS23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BT23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BU23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BV23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BW23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BX23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BY23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BZ23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CA23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CB23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CC23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CD23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CE23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CF23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CG23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CH23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CI23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CJ23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B24" t="s">
         <v>171</v>
@@ -6570,31 +7042,31 @@
         <v>171</v>
       </c>
       <c r="D24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E24" s="58" t="s">
-        <v>394</v>
+        <v>173</v>
       </c>
       <c r="F24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="I24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="J24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="K24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="L24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M24" t="s">
         <v>171</v>
@@ -6603,16 +7075,16 @@
         <v>171</v>
       </c>
       <c r="O24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="P24" t="s">
         <v>171</v>
       </c>
       <c r="Q24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="R24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="S24" t="s">
         <v>171</v>
@@ -6621,67 +7093,67 @@
         <v>171</v>
       </c>
       <c r="U24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V24" t="s">
         <v>171</v>
       </c>
       <c r="W24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="X24" t="s">
         <v>171</v>
       </c>
       <c r="Y24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z24" t="s">
         <v>171</v>
       </c>
       <c r="AA24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AB24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AC24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AD24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AE24" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AG24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AH24" s="42" t="s">
         <v>171</v>
       </c>
       <c r="AI24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AJ24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AK24" s="58" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AL24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AM24" t="s">
-        <v>172</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>372</v>
+        <v>163</v>
+      </c>
+      <c r="AN24" s="58" t="s">
+        <v>176</v>
       </c>
       <c r="AO24" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AP24" s="42" t="s">
         <v>171</v>
@@ -6690,7 +7162,7 @@
         <v>171</v>
       </c>
       <c r="AR24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AS24" t="s">
         <v>171</v>
@@ -6708,126 +7180,126 @@
         <v>171</v>
       </c>
       <c r="AX24" s="58" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AY24" t="s">
         <v>171</v>
       </c>
       <c r="AZ24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BA24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BB24" t="s">
         <v>171</v>
       </c>
       <c r="BC24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BD24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BE24" s="58" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BF24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BG24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BH24" t="s">
         <v>171</v>
       </c>
       <c r="BI24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BJ24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BK24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BL24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BM24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BN24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BO24" s="42" t="s">
         <v>171</v>
       </c>
       <c r="BP24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BQ24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BR24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BS24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BT24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BU24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BV24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BW24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BX24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BY24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BZ24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CA24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CB24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CC24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CD24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CE24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CF24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CG24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CH24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CI24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CJ24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
         <v>171</v>
@@ -6836,46 +7308,46 @@
         <v>171</v>
       </c>
       <c r="D25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="I25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="J25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="K25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="L25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N25" t="s">
         <v>171</v>
       </c>
       <c r="O25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="P25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="Q25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="R25" t="s">
         <v>171</v>
@@ -6887,7 +7359,7 @@
         <v>171</v>
       </c>
       <c r="U25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V25" t="s">
         <v>171</v>
@@ -6899,7 +7371,7 @@
         <v>171</v>
       </c>
       <c r="Y25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z25" t="s">
         <v>171</v>
@@ -6908,187 +7380,187 @@
         <v>171</v>
       </c>
       <c r="AB25" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC25" t="s">
         <v>172</v>
       </c>
-      <c r="AC25" t="s">
-        <v>173</v>
-      </c>
       <c r="AD25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AE25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AG25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AH25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AI25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AJ25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AK25" s="58" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AL25" t="s">
         <v>171</v>
       </c>
       <c r="AM25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AN25" t="s">
         <v>171</v>
       </c>
       <c r="AO25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AP25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AQ25" s="58" t="s">
-        <v>394</v>
+        <v>173</v>
       </c>
       <c r="AR25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AS25" t="s">
         <v>171</v>
       </c>
       <c r="AT25" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>163</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX25" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY25" t="s">
         <v>172</v>
       </c>
-      <c r="AU25" t="s">
-        <v>172</v>
-      </c>
-      <c r="AV25" t="s">
-        <v>172</v>
-      </c>
-      <c r="AW25" t="s">
-        <v>172</v>
-      </c>
-      <c r="AX25" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="AY25" t="s">
-        <v>173</v>
-      </c>
       <c r="AZ25" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BA25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BB25" t="s">
         <v>171</v>
       </c>
       <c r="BC25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BD25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BE25" s="58" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BF25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BG25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BH25" t="s">
         <v>171</v>
       </c>
       <c r="BI25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BJ25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BK25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BL25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BM25" s="42" t="s">
         <v>171</v>
       </c>
       <c r="BN25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BO25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BP25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BQ25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BR25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BS25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BT25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BU25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BV25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BW25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BX25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BY25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BZ25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CA25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CB25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CC25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CD25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CE25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CF25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CG25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CH25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CI25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CJ25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7099,34 +7571,34 @@
         <v>171</v>
       </c>
       <c r="C26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="I26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="J26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="K26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="L26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M26" t="s">
         <v>171</v>
@@ -7135,25 +7607,25 @@
         <v>171</v>
       </c>
       <c r="O26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="P26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="Q26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="R26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="S26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="T26" t="s">
         <v>171</v>
       </c>
       <c r="U26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V26" t="s">
         <v>171</v>
@@ -7165,73 +7637,73 @@
         <v>171</v>
       </c>
       <c r="Y26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AA26" s="5" t="s">
         <v>171</v>
       </c>
       <c r="AB26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AC26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AD26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AE26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AG26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AH26" t="s">
         <v>171</v>
       </c>
       <c r="AI26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AJ26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AK26" s="58" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AL26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AM26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AN26" s="58" t="s">
-        <v>394</v>
+        <v>173</v>
       </c>
       <c r="AO26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AP26" t="s">
         <v>171</v>
       </c>
       <c r="AQ26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AR26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AS26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AT26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AU26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AV26" t="s">
         <v>171</v>
@@ -7240,121 +7712,121 @@
         <v>171</v>
       </c>
       <c r="AX26" s="58" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AY26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AZ26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BA26" t="s">
         <v>171</v>
       </c>
       <c r="BB26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BC26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BD26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BE26" s="58" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BF26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BG26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BH26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BI26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BJ26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BK26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BL26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BM26" s="42" t="s">
         <v>171</v>
       </c>
       <c r="BN26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BO26" t="s">
         <v>171</v>
       </c>
       <c r="BP26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BQ26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BR26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BS26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BT26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BU26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BV26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BW26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BX26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BY26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BZ26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CA26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CB26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CC26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CD26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CE26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CF26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CG26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CH26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CI26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CJ26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7403,7 +7875,7 @@
     </row>
     <row r="28" spans="1:88" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B28" s="7"/>
       <c r="BV28" s="29"/>
@@ -7424,7 +7896,7 @@
     </row>
     <row r="29" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B29" s="42">
         <v>2008</v>
@@ -7439,10 +7911,10 @@
         <v>2018</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="G29" s="58" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="H29" s="42">
         <v>2012</v>
@@ -7457,7 +7929,7 @@
         <v>2020</v>
       </c>
       <c r="M29" s="58" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="N29">
         <v>2007</v>
@@ -7478,7 +7950,7 @@
         <v>2020</v>
       </c>
       <c r="T29" s="42" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="U29" s="42">
         <v>1996</v>
@@ -7493,7 +7965,7 @@
         <v>2011</v>
       </c>
       <c r="Y29" s="42" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="Z29" s="43">
         <v>1992</v>
@@ -7517,7 +7989,7 @@
         <v>2002</v>
       </c>
       <c r="AG29" s="58" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="AH29">
         <v>2007</v>
@@ -7632,46 +8104,46 @@
         <v>2001</v>
       </c>
       <c r="BV29" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="BW29" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="BX29" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="BW29" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="BX29" s="32" t="s">
-        <v>203</v>
-      </c>
       <c r="BY29" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BZ29" s="55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CA29" s="55"/>
       <c r="CB29" s="32"/>
       <c r="CC29" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="CD29" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="CE29" s="55" t="s">
         <v>268</v>
-      </c>
-      <c r="CE29" s="55" t="s">
-        <v>269</v>
       </c>
       <c r="CF29" s="55"/>
       <c r="CG29" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH29" s="32"/>
       <c r="CI29" s="55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CJ29" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B30" s="42"/>
       <c r="C30">
@@ -7680,13 +8152,13 @@
       <c r="D30" s="42"/>
       <c r="E30" s="42"/>
       <c r="F30" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G30">
         <v>2022</v>
       </c>
       <c r="H30" s="42" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="I30" s="42"/>
       <c r="J30" s="42"/>
@@ -7694,7 +8166,7 @@
         <v>2021</v>
       </c>
       <c r="M30" s="58" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="O30" s="42">
         <v>2008</v>
@@ -7711,7 +8183,7 @@
         <v>2002</v>
       </c>
       <c r="V30" s="42" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="W30">
         <v>2010</v>
@@ -7720,19 +8192,19 @@
         <v>2018</v>
       </c>
       <c r="Y30" s="42" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="Z30" s="43"/>
       <c r="AA30" s="43"/>
       <c r="AB30" s="58" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="AC30">
         <v>2008</v>
       </c>
       <c r="AF30" s="42"/>
       <c r="AG30" s="58" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="AI30" s="42"/>
       <c r="AK30" s="42">
@@ -7754,7 +8226,7 @@
         <v>1996</v>
       </c>
       <c r="AR30" s="42" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="AS30" s="42">
         <v>2022</v>
@@ -7775,7 +8247,7 @@
       <c r="AZ30" s="42"/>
       <c r="BA30" s="42"/>
       <c r="BB30" s="42" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="BC30" s="42"/>
       <c r="BE30" s="42"/>
@@ -7793,7 +8265,7 @@
         <v>2010</v>
       </c>
       <c r="BN30" s="42" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="BQ30" s="42">
         <v>1998</v>
@@ -7809,20 +8281,20 @@
       </c>
       <c r="BV30" s="32"/>
       <c r="BW30" s="32" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="BX30" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BY30" s="32"/>
       <c r="BZ30" s="55" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="CA30" s="55"/>
       <c r="CB30" s="32"/>
       <c r="CC30" s="32"/>
       <c r="CD30" s="32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CE30" s="55"/>
       <c r="CF30" s="55"/>
@@ -7830,12 +8302,12 @@
       <c r="CH30" s="32"/>
       <c r="CI30" s="55"/>
       <c r="CJ30" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B31" s="44">
         <v>10000000</v>
@@ -8099,7 +8571,7 @@
     </row>
     <row r="32" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B32" s="42"/>
       <c r="D32" s="42">
@@ -8245,7 +8717,7 @@
     </row>
     <row r="34" spans="1:88" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -8267,1869 +8739,1869 @@
     </row>
     <row r="35" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B35" t="s">
         <v>163</v>
       </c>
       <c r="C35" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="D35" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H35" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="I35" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M35" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="N35" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="O35" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="Q35" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="R35" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="S35" t="s">
         <v>163</v>
       </c>
       <c r="T35" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="U35" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="V35" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Z35" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AA35" s="5" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AB35" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AC35" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AD35" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AE35" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AF35" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AG35" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="AH35" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AI35" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AJ35" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="AK35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL35" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="AM35" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="AN35" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AO35" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AP35" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="AQ35" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AR35" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AS35" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="AT35" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="AU35" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="AV35" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="AW35" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AX35" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AY35" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AZ35" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BA35" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="BB35" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BC35" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BD35" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="BE35" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BF35" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BG35" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BH35" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="BI35" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BJ35" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BK35" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BL35" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BM35" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BN35" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BO35" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BP35" t="s">
         <v>163</v>
       </c>
       <c r="BQ35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BR35" t="s">
         <v>162</v>
       </c>
       <c r="BS35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BT35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BU35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BV35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BW35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BX35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BY35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BZ35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CA35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CB35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CC35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CD35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CE35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CF35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CG35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CH35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CI35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CJ35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="C36" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="D36" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H36" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="I36" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M36" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="N36" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="O36" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="Q36" t="s">
         <v>163</v>
       </c>
       <c r="R36" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="S36" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="T36" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="U36" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="V36" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="W36" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="X36" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Y36" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Z36" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="AA36" s="5" t="s">
         <v>163</v>
       </c>
       <c r="AB36" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AC36" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AD36" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AE36" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="AF36" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AG36" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AH36" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AI36" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AJ36" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AK36" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AL36" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="AM36" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AN36" s="58" t="s">
-        <v>395</v>
+        <v>531</v>
       </c>
       <c r="AO36" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AP36" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="AQ36" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AR36" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AS36" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AT36" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AU36" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AV36" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="AW36" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AX36" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="AY36" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AZ36" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BA36" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="BB36" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BC36" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BD36" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="BE36" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BF36" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="BG36" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="BH36" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="BI36" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="BJ36" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BK36" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="BL36" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BM36" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BN36" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BO36" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="BP36" t="s">
         <v>163</v>
       </c>
       <c r="BQ36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BR36" t="s">
         <v>163</v>
       </c>
       <c r="BS36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BT36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BU36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BV36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BW36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BX36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BY36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BZ36" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="CA36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CB36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CC36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CD36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CE36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CF36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CG36" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="CH36" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="CI36" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="CJ36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B37" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="C37" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="D37" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H37" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="I37" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M37" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="N37" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="O37" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="P37" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="Q37" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="R37" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="S37" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="T37" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="U37" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="V37" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="W37" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="X37" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Y37" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Z37" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AA37" s="5" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AB37" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AC37" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AD37" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AE37" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AF37" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AG37" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AH37" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AI37" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AJ37" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="AK37" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AL37" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AM37" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AN37" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AO37" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AP37" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="AQ37" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AR37" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="AS37" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AT37" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AU37" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AV37" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="AW37" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="AX37" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AY37" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="AZ37" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BA37" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BB37" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="BC37" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="BD37" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="BE37" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="BF37" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="BG37" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="BH37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BI37" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BJ37" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="BK37" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BL37" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="BM37" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BN37" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="BO37" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BP37" t="s">
         <v>163</v>
       </c>
       <c r="BQ37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BR37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BS37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BT37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BU37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BV37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BW37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BX37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BY37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BZ37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CA37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CB37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CC37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CD37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CE37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CF37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CG37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CH37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CI37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CJ37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="C38" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D38" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E38" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H38" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="I38" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="J38" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M38" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="N38" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="O38" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="P38" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="Q38" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="R38" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="S38" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="T38" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="U38" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="V38" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="W38" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="X38" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Y38" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Z38" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AA38" s="5" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AB38" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="AC38" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AD38" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AE38" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="AF38" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AG38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AH38" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AI38" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AJ38" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="AK38" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AL38" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AM38" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AN38" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AO38" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AP38" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="AQ38" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AR38" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AS38" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AT38" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AU38" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AV38" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AW38" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="AX38" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AY38" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AZ38" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BA38" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BB38" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="BC38" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BD38" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="BE38" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="BF38" t="s">
-        <v>177</v>
+        <v>532</v>
       </c>
       <c r="BG38" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BH38" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="BI38" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="BJ38" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BK38" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BL38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BM38" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BN38" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="BO38" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BP38" t="s">
         <v>163</v>
       </c>
       <c r="BQ38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BR38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BS38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BT38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BU38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BV38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BW38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BX38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BY38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BZ38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CA38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CB38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CC38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CD38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CE38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CF38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CG38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CH38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CI38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CJ38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B39" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C39" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D39" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H39" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="I39" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="J39" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M39" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="N39" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="O39" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="P39" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="Q39" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="R39" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="S39" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="T39" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="U39" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="V39" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="W39" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="X39" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Y39" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Z39" t="s">
-        <v>177</v>
+        <v>532</v>
       </c>
       <c r="AA39" s="5" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AB39" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="AC39" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AD39" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AE39" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF39" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AG39" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AH39" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AI39" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AJ39" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="AK39" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AL39" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="AM39" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AN39" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AO39" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AP39" t="s">
-        <v>174</v>
+        <v>531</v>
       </c>
       <c r="AQ39" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AR39" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="AS39" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AT39" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AU39" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AV39" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AW39" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="AX39" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="AY39" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="AZ39" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="BA39" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="BB39" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="BC39" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="BD39" t="s">
-        <v>174</v>
+        <v>531</v>
       </c>
       <c r="BE39" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="BF39" t="s">
-        <v>177</v>
+        <v>532</v>
       </c>
       <c r="BG39" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="BH39" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="BI39" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="BJ39" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="BK39" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BL39" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="BM39" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BN39" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="BO39" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="BP39" t="s">
         <v>163</v>
       </c>
       <c r="BQ39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BR39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BS39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BT39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BU39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BV39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BW39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BX39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BY39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BZ39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CA39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CB39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CC39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CD39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CE39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CF39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CG39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CH39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CI39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CJ39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C40" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D40" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E40" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="J40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="N40" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="O40" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="P40" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="Q40" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="R40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="S40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="T40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="U40" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="V40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="W40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="X40" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Y40" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Z40" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="AA40" s="5" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AB40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AC40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AD40" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AE40" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AF40" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AG40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AH40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AI40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AJ40" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AK40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AL40" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AM40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AN40" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AO40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AP40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AQ40" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AR40" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AS40" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AT40" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AU40" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AV40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AW40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AX40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AY40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AZ40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BA40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BB40" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="BC40" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="BD40" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="BE40" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="BF40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BG40" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="BH40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BI40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BJ40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BK40" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="BL40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BM40" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="BN40" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="BO40" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="BP40" t="s">
         <v>163</v>
       </c>
       <c r="BQ40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BR40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BS40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BT40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BU40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BV40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BW40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BX40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BY40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BZ40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CA40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CB40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CC40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CD40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CE40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CF40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CG40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CH40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CI40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CJ40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B41" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="C41" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="N41" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="O41" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="Q41" t="s">
         <v>163</v>
       </c>
       <c r="R41" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="S41" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="T41" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="U41" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Z41" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AA41" s="5" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AB41" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AC41" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AD41" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AE41" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AF41" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AG41" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AH41" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AI41" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AJ41" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="AK41" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AL41" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AM41" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AN41" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AO41" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AP41" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AQ41" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AR41" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AS41" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="AT41" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AU41" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AV41" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AW41" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AX41" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AY41" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AZ41" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BA41" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BB41" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BC41" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BD41" t="s">
-        <v>373</v>
+        <v>533</v>
       </c>
       <c r="BE41" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BF41" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BG41" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BH41" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BI41" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BJ41" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BK41" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BL41" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BM41" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BN41" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BO41" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BP41" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BQ41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BR41" t="s">
-        <v>74</v>
+        <v>282</v>
       </c>
       <c r="BS41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BT41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BU41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BV41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BW41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BX41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BY41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BZ41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CA41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CB41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CC41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CD41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CE41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CF41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CG41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CH41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CI41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CJ41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B42" t="s">
         <v>163</v>
@@ -10138,46 +10610,46 @@
         <v>163</v>
       </c>
       <c r="D42" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="E42" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H42" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M42" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="N42" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="O42" t="s">
         <v>163</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="Q42" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="R42" t="s">
         <v>163</v>
@@ -10189,19 +10661,19 @@
         <v>163</v>
       </c>
       <c r="U42" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="V42" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="W42" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Y42" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Z42" t="s">
         <v>163</v>
@@ -10210,52 +10682,52 @@
         <v>163</v>
       </c>
       <c r="AB42" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AC42" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AD42" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AE42" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AF42" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AG42" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AH42" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AI42" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AJ42" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AK42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL42" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AM42" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AN42" s="58" t="s">
         <v>163</v>
       </c>
       <c r="AO42" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AP42" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AQ42" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AR42" t="s">
         <v>163</v>
@@ -10264,40 +10736,40 @@
         <v>163</v>
       </c>
       <c r="AT42" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AU42" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AV42" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AW42" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="AX42" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AY42" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AZ42" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BA42" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="BB42" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BC42" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="BD42" t="s">
         <v>163</v>
       </c>
       <c r="BE42" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="BF42" t="s">
         <v>163</v>
@@ -10306,530 +10778,530 @@
         <v>163</v>
       </c>
       <c r="BH42" t="s">
-        <v>374</v>
-      </c>
-      <c r="BI42" t="s">
+        <v>530</v>
+      </c>
+      <c r="BI42" s="58" t="s">
         <v>163</v>
       </c>
       <c r="BJ42" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="BK42" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="BL42" t="s">
         <v>163</v>
       </c>
       <c r="BM42" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="BN42" t="s">
         <v>163</v>
       </c>
       <c r="BO42" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BP42" t="s">
         <v>163</v>
       </c>
       <c r="BQ42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BR42" t="s">
         <v>163</v>
       </c>
       <c r="BS42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BT42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BU42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BV42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BW42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BX42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BY42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BZ42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CA42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CB42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CC42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CD42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CE42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CF42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CG42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CH42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CI42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CJ42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B43" t="s">
         <v>163</v>
       </c>
       <c r="C43" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H43" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="J43" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="N43" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="O43" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="Q43" t="s">
         <v>163</v>
       </c>
       <c r="R43" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="S43" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="T43" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="U43" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="V43" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Y43" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Z43" t="s">
         <v>163</v>
       </c>
       <c r="AA43" s="5" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AB43" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AC43" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AD43" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AE43" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF43" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AG43" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="AH43" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AI43" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AJ43" t="s">
         <v>163</v>
       </c>
       <c r="AK43" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AL43" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AM43" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AN43" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AO43" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AP43" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AQ43" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AR43" t="s">
         <v>163</v>
       </c>
       <c r="AS43" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="AT43" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AU43" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AV43" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AW43" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="AX43" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AY43" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AZ43" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BA43" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BB43" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BC43" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BD43" t="s">
-        <v>373</v>
+        <v>533</v>
       </c>
       <c r="BE43" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BF43" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BG43" t="s">
         <v>163</v>
       </c>
       <c r="BH43" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BI43" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BJ43" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="BK43" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BL43" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BM43" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BN43" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BO43" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BP43" t="s">
         <v>163</v>
       </c>
       <c r="BQ43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BR43" t="s">
         <v>162</v>
       </c>
       <c r="BS43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BT43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BU43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BV43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BW43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BX43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BY43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BZ43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CA43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CB43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CC43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CD43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CE43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CF43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CG43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CH43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CI43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CJ43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B44" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="C44" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="D44" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H44" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="J44" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M44" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="N44" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="O44" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="Q44" t="s">
         <v>163</v>
       </c>
       <c r="R44" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="S44" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="T44" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="U44" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="V44" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="W44" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Y44" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Z44" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AA44" s="5" t="s">
         <v>163</v>
       </c>
       <c r="AB44" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AC44" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AD44" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AE44" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF44" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AG44" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AH44" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AI44" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AJ44" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AK44" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AL44" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="AM44" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="AN44" s="58" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AO44" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AP44" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AQ44" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AR44" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="AS44" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="AT44" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AU44" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AV44" t="s">
-        <v>172</v>
-      </c>
-      <c r="AW44" t="s">
         <v>163</v>
       </c>
+      <c r="AW44" s="58" t="s">
+        <v>163</v>
+      </c>
       <c r="AX44" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AY44" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="AZ44" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="BA44" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="BB44" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BC44" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BD44" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="BE44" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BF44" t="s">
         <v>163</v>
@@ -10838,374 +11310,374 @@
         <v>163</v>
       </c>
       <c r="BH44" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BI44" t="s">
         <v>163</v>
       </c>
       <c r="BJ44" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="BK44" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BL44" t="s">
         <v>163</v>
       </c>
       <c r="BM44" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BN44" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BO44" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="BP44" t="s">
         <v>163</v>
       </c>
       <c r="BQ44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BR44" t="s">
         <v>162</v>
       </c>
       <c r="BS44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BT44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BU44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BV44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BW44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BX44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BY44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BZ44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CA44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CB44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CC44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CD44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CE44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CF44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CG44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CH44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CI44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CJ44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B45" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="C45" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="D45" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="J45" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="N45" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="O45" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="Q45" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="R45" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="S45" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="T45" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="U45" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="V45" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Z45" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AA45" s="5" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AB45" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AC45" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AD45" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AE45" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AF45" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AG45" s="58" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="AH45" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="AI45" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AJ45" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="AK45" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AL45" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AM45" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AN45" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AO45" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AP45" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AQ45" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AR45" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AS45" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="AT45" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AU45" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AV45" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AW45" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="AX45" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AY45" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="AZ45" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BA45" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BB45" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BC45" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BD45" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BE45" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BF45" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BG45" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BH45" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BI45" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BJ45" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BK45" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BL45" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BM45" s="3" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="BN45" t="s">
         <v>163</v>
       </c>
       <c r="BO45" t="s">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="BP45" t="s">
         <v>163</v>
       </c>
       <c r="BQ45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BR45" t="s">
         <v>163</v>
       </c>
       <c r="BS45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BT45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BU45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BV45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BW45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BX45" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="BY45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BZ45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CA45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CB45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CC45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CD45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CE45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CF45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CG45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CH45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CI45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CJ45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="46" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="48" spans="1:88" x14ac:dyDescent="0.15">
       <c r="A48" s="75" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <conditionalFormatting sqref="B13:C13 F13:G13 I13 K13:L13 N13:O13 Q13:U13 X13:AB13 AD13 AJ13 AN13 AP13:AR13 AW13 BB13:BG13 BI13:BJ13 BL13 BN13 BP13:BQ13">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="None">
+  <conditionalFormatting sqref="B13:C13 F13:G13 I13 K13:L13 N13:O13 AD13 AJ13 AQ13:AR13 BG13 BI13 BP13:BQ13 Q13:U13 X13:AB13">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" sqref="AR20:AS20 AR29:AS31 AR27:AS27 AR4:AS4 AX14:BA14 BS12:BT12 AU14:AV14 BV20:CJ20 AU6:AV12 BO14 AY11:BA12 BC6:BD14 BH14 AS14 BM14 BM6:BM12 BK14 BP6:BQ14 BO6:BO12 AY6:BB9 AR6:AR14 AS6:AS12 BI6:BJ14 BL6:BL14 BK6:BK12 BN6:BN14 AT10 BH11:BH12 BV4:CJ14 BV27:CJ31 BB11:BB14 AY29:BQ31 BE10:BG14 AY27:BQ27 AY4:BQ4 BE6:BH9 AU4:AW4 AU27:AW27 AU20:BQ20 AU29:AW31 AW6:AW9 AW11:AW14 AX6:AX12" xr:uid="{867E023D-9480-D642-8D7B-D9C030E60E5B}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" sqref="AR20:AS20 AR29:AS31 AR27:AS27 AR4:AS4 AX14:BA14 BS12:BT12 AU14:AV14 BV20:CJ20 AU6:AV12 BO14 AY11:BA12 BB14 BH14 AS14 BM14 BM6:BM12 BK14 BP6:BQ14 BO6:BO12 AY6:BB9 AR6:AR14 AS6:AS12 BF14 BJ14 BK6:BK12 BL14 AT10 BH11:BH12 BV4:CJ14 BV27:CJ31 AW14 AY29:BQ31 BD14 AY27:BQ27 AY4:BQ4 BE6:BH9 AU4:AW4 AU27:AW27 AU20:BQ20 AU29:AW31 AW6:AW9 AX6:AX12 AW11:AW12 BB11:BB12 BC14 BC6:BC12 BD6:BD12 BE14 BE10:BE12 BG10:BG14 BF10:BF12 BI6:BI14 BJ6:BJ12 BL6:BL12 BN6:BN12 BN14" xr:uid="{867E023D-9480-D642-8D7B-D9C030E60E5B}">
       <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="AT20 AT29:AT31 AT27 AT14" xr:uid="{0FADE96E-D3E8-7A49-9B89-7D5551E86AFD}">
@@ -11368,7 +11840,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11378,71 +11850,71 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D9" s="58"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D10" s="65"/>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D11" s="65"/>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D12" s="58"/>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D13" s="65"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D14" s="58"/>
     </row>
     <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="76" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D15" s="58"/>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D16" s="60"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D18" s="65"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="58" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -11453,18 +11925,18 @@
     </row>
     <row r="21" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="76" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D21" s="50"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D23" s="60"/>
     </row>
@@ -11481,34 +11953,34 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D27" s="58"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D28" s="60"/>
     </row>
     <row r="29" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="76" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -11519,13 +11991,13 @@
     </row>
     <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="76" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D33" s="65"/>
     </row>
     <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="76" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -11554,7 +12026,7 @@
     </row>
     <row r="39" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="76" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
@@ -11565,7 +12037,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D41" s="58"/>
     </row>
@@ -11577,47 +12049,47 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D43" s="60"/>
     </row>
     <row r="44" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="58" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D46" s="58"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D47" s="63"/>
     </row>
     <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D48" s="58"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D49" s="58"/>
     </row>
     <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="42" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D50" s="65"/>
     </row>
@@ -11629,47 +12101,47 @@
     </row>
     <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="42" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="76" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D53" s="58"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D54" s="60"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="42" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D56" s="65"/>
     </row>
     <row r="57" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D57" s="58"/>
     </row>
     <row r="58" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="76" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D58" s="60"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -11680,19 +12152,19 @@
     </row>
     <row r="61" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="76" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D61" s="65"/>
     </row>
     <row r="62" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="76" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D62" s="60"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D63" s="58"/>
     </row>
@@ -11704,58 +12176,58 @@
     </row>
     <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="42" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D65" s="65"/>
     </row>
     <row r="66" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D66" s="65"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D67" s="65"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D68" s="65"/>
     </row>
     <row r="69" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D69" s="65"/>
     </row>
     <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D70" s="58"/>
     </row>
     <row r="71" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="76" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="58" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D74" s="62"/>
     </row>
@@ -11767,7 +12239,7 @@
     </row>
     <row r="76" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="76" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="66"/>
     </row>
@@ -11779,7 +12251,7 @@
     </row>
     <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="77" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D78" s="61"/>
     </row>
@@ -11791,19 +12263,19 @@
     </row>
     <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="77" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D80" s="62"/>
     </row>
     <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="77" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D81" s="66"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D82" s="67"/>
     </row>
@@ -11815,7 +12287,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="61" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D84" s="62"/>
     </row>
@@ -11833,19 +12305,19 @@
     </row>
     <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="77" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D87" s="67"/>
     </row>
     <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="77" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D88" s="67"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D89" s="24"/>
     </row>
@@ -11863,7 +12335,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D92" s="65"/>
     </row>
@@ -11875,7 +12347,7 @@
     </row>
     <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="77" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D94" s="58"/>
     </row>
@@ -11900,7 +12372,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D100" s="58"/>
     </row>
@@ -11915,13 +12387,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="58" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D103" s="58"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="50" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D104" s="58"/>
     </row>
@@ -11930,13 +12402,13 @@
     </row>
     <row r="106" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A106" s="76" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D106" s="58"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D107" s="65"/>
     </row>
@@ -11945,7 +12417,7 @@
     </row>
     <row r="109" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A109" s="80" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B109" s="40"/>
       <c r="D109" s="60"/>
@@ -11961,19 +12433,19 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="84" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D112" s="60"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="38" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D113" s="60"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="38" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D114" s="58"/>
     </row>
@@ -11982,30 +12454,30 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="50" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="58" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="D118" s="15"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="58" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="D119" s="15"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="50" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="D120" s="15"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="58" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D121" s="15"/>
     </row>
@@ -12014,25 +12486,25 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="50" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="D123" s="15"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="5" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="D124" s="15"/>
     </row>
     <row r="125" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="50" t="s">
-        <v>532</v>
-      </c>
-      <c r="D125" s="92"/>
+        <v>525</v>
+      </c>
+      <c r="D125" s="91"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D126" s="15"/>
     </row>

--- a/data/survey_data.xlsx
+++ b/data/survey_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgarcia/Documents/IHCC/Atlas/Excel surveys to upload to Github/Update November 2023/Survey file - to upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A74E15-9C99-A643-A74C-DC4479B71B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BC9921-9470-3D4D-921E-530CB31211BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19700" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="532">
   <si>
     <t>IHCC Data Harmonization</t>
   </si>
@@ -1259,9 +1259,6 @@
     <t>Population-based, random sample</t>
   </si>
   <si>
-    <t>100% of cohort</t>
-  </si>
-  <si>
     <t>76-100% of cohort</t>
     <phoneticPr fontId="0"/>
   </si>
@@ -1321,9 +1318,6 @@
   </si>
   <si>
     <t>Y - 26-50% of cohort</t>
-  </si>
-  <si>
-    <t>% Uknown</t>
   </si>
   <si>
     <t>Southeastern Asia</t>
@@ -1753,9 +1747,6 @@
   </si>
   <si>
     <t>Yes - 51-75% of cohort</t>
-  </si>
-  <si>
-    <t>Yes - 100% of cohort</t>
   </si>
   <si>
     <t>Y - Yes - 76-100% of cohort</t>
@@ -2906,9 +2897,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CJ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BW13" sqref="BW13"/>
+      <selection pane="topRight" activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2927,265 +2918,265 @@
         <v>5</v>
       </c>
       <c r="B2" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="D2" s="58" t="s">
         <v>411</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="E2" s="58" t="s">
         <v>412</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="F2" s="58" t="s">
         <v>413</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="G2" s="58" t="s">
         <v>414</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="H2" s="58" t="s">
         <v>415</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="I2" s="58" t="s">
         <v>416</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="J2" s="58" t="s">
         <v>417</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="K2" s="58" t="s">
         <v>418</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="L2" s="58" t="s">
         <v>419</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="M2" s="58" t="s">
         <v>420</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="N2" s="58" t="s">
         <v>421</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="O2" s="58" t="s">
         <v>422</v>
       </c>
-      <c r="N2" s="58" t="s">
+      <c r="P2" s="58" t="s">
         <v>423</v>
       </c>
-      <c r="O2" s="58" t="s">
+      <c r="Q2" s="58" t="s">
         <v>424</v>
       </c>
-      <c r="P2" s="58" t="s">
+      <c r="R2" s="58" t="s">
         <v>425</v>
       </c>
-      <c r="Q2" s="58" t="s">
+      <c r="S2" s="58" t="s">
         <v>426</v>
       </c>
-      <c r="R2" s="58" t="s">
+      <c r="T2" s="58" t="s">
         <v>427</v>
       </c>
-      <c r="S2" s="58" t="s">
+      <c r="U2" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="T2" s="58" t="s">
+      <c r="V2" s="58" t="s">
         <v>429</v>
       </c>
-      <c r="U2" s="58" t="s">
+      <c r="W2" s="58" t="s">
         <v>430</v>
       </c>
-      <c r="V2" s="58" t="s">
+      <c r="X2" s="58" t="s">
         <v>431</v>
       </c>
-      <c r="W2" s="58" t="s">
+      <c r="Y2" s="58" t="s">
         <v>432</v>
       </c>
-      <c r="X2" s="58" t="s">
+      <c r="Z2" s="58" t="s">
         <v>433</v>
       </c>
-      <c r="Y2" s="58" t="s">
+      <c r="AA2" s="58" t="s">
         <v>434</v>
       </c>
-      <c r="Z2" s="58" t="s">
+      <c r="AB2" s="58" t="s">
         <v>435</v>
       </c>
-      <c r="AA2" s="58" t="s">
+      <c r="AC2" s="58" t="s">
         <v>436</v>
       </c>
-      <c r="AB2" s="58" t="s">
+      <c r="AD2" s="58" t="s">
         <v>437</v>
       </c>
-      <c r="AC2" s="58" t="s">
+      <c r="AE2" s="58" t="s">
         <v>438</v>
       </c>
-      <c r="AD2" s="58" t="s">
+      <c r="AF2" s="58" t="s">
         <v>439</v>
       </c>
-      <c r="AE2" s="58" t="s">
+      <c r="AG2" s="58" t="s">
         <v>440</v>
       </c>
-      <c r="AF2" s="58" t="s">
+      <c r="AH2" s="58" t="s">
         <v>441</v>
       </c>
-      <c r="AG2" s="58" t="s">
+      <c r="AI2" s="58" t="s">
         <v>442</v>
       </c>
-      <c r="AH2" s="58" t="s">
+      <c r="AJ2" s="58" t="s">
         <v>443</v>
       </c>
-      <c r="AI2" s="58" t="s">
+      <c r="AK2" s="58" t="s">
         <v>444</v>
       </c>
-      <c r="AJ2" s="58" t="s">
+      <c r="AL2" s="58" t="s">
         <v>445</v>
       </c>
-      <c r="AK2" s="58" t="s">
+      <c r="AM2" s="58" t="s">
         <v>446</v>
       </c>
-      <c r="AL2" s="58" t="s">
+      <c r="AN2" s="58" t="s">
         <v>447</v>
       </c>
-      <c r="AM2" s="58" t="s">
+      <c r="AO2" s="58" t="s">
         <v>448</v>
       </c>
-      <c r="AN2" s="58" t="s">
+      <c r="AP2" s="58" t="s">
         <v>449</v>
-      </c>
-      <c r="AO2" s="58" t="s">
-        <v>450</v>
-      </c>
-      <c r="AP2" s="58" t="s">
-        <v>451</v>
       </c>
       <c r="AQ2" s="58" t="s">
         <v>313</v>
       </c>
       <c r="AR2" s="58" t="s">
+        <v>450</v>
+      </c>
+      <c r="AS2" s="58" t="s">
+        <v>451</v>
+      </c>
+      <c r="AT2" s="58" t="s">
         <v>452</v>
       </c>
-      <c r="AS2" s="58" t="s">
+      <c r="AU2" s="58" t="s">
         <v>453</v>
       </c>
-      <c r="AT2" s="58" t="s">
+      <c r="AV2" s="58" t="s">
         <v>454</v>
       </c>
-      <c r="AU2" s="58" t="s">
+      <c r="AW2" s="58" t="s">
         <v>455</v>
       </c>
-      <c r="AV2" s="58" t="s">
+      <c r="AX2" s="58" t="s">
+        <v>494</v>
+      </c>
+      <c r="AY2" s="58" t="s">
         <v>456</v>
       </c>
-      <c r="AW2" s="58" t="s">
+      <c r="AZ2" s="58" t="s">
         <v>457</v>
       </c>
-      <c r="AX2" s="58" t="s">
-        <v>496</v>
-      </c>
-      <c r="AY2" s="58" t="s">
+      <c r="BA2" s="58" t="s">
         <v>458</v>
       </c>
-      <c r="AZ2" s="58" t="s">
+      <c r="BB2" s="58" t="s">
         <v>459</v>
       </c>
-      <c r="BA2" s="58" t="s">
+      <c r="BC2" s="58" t="s">
         <v>460</v>
       </c>
-      <c r="BB2" s="58" t="s">
+      <c r="BD2" s="58" t="s">
         <v>461</v>
       </c>
-      <c r="BC2" s="58" t="s">
+      <c r="BE2" s="58" t="s">
         <v>462</v>
       </c>
-      <c r="BD2" s="58" t="s">
+      <c r="BF2" s="58" t="s">
         <v>463</v>
       </c>
-      <c r="BE2" s="58" t="s">
+      <c r="BG2" s="58" t="s">
         <v>464</v>
       </c>
-      <c r="BF2" s="58" t="s">
+      <c r="BH2" s="58" t="s">
         <v>465</v>
       </c>
-      <c r="BG2" s="58" t="s">
+      <c r="BI2" s="58" t="s">
         <v>466</v>
       </c>
-      <c r="BH2" s="58" t="s">
+      <c r="BJ2" s="58" t="s">
         <v>467</v>
       </c>
-      <c r="BI2" s="58" t="s">
+      <c r="BK2" s="58" t="s">
         <v>468</v>
       </c>
-      <c r="BJ2" s="58" t="s">
+      <c r="BL2" s="58" t="s">
         <v>469</v>
       </c>
-      <c r="BK2" s="58" t="s">
+      <c r="BM2" s="58" t="s">
         <v>470</v>
       </c>
-      <c r="BL2" s="58" t="s">
+      <c r="BN2" s="58" t="s">
         <v>471</v>
       </c>
-      <c r="BM2" s="58" t="s">
+      <c r="BO2" s="58" t="s">
         <v>472</v>
       </c>
-      <c r="BN2" s="58" t="s">
+      <c r="BP2" s="58" t="s">
         <v>473</v>
       </c>
-      <c r="BO2" s="58" t="s">
+      <c r="BQ2" s="58" t="s">
         <v>474</v>
       </c>
-      <c r="BP2" s="58" t="s">
+      <c r="BR2" s="58" t="s">
         <v>475</v>
       </c>
-      <c r="BQ2" s="58" t="s">
+      <c r="BS2" s="58" t="s">
         <v>476</v>
       </c>
-      <c r="BR2" s="58" t="s">
+      <c r="BT2" s="58" t="s">
         <v>477</v>
       </c>
-      <c r="BS2" s="58" t="s">
+      <c r="BU2" s="58" t="s">
         <v>478</v>
       </c>
-      <c r="BT2" s="58" t="s">
+      <c r="BV2" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="BU2" s="58" t="s">
+      <c r="BW2" s="58" t="s">
         <v>480</v>
       </c>
-      <c r="BV2" s="58" t="s">
+      <c r="BX2" s="58" t="s">
         <v>481</v>
       </c>
-      <c r="BW2" s="58" t="s">
+      <c r="BY2" s="58" t="s">
         <v>482</v>
       </c>
-      <c r="BX2" s="58" t="s">
+      <c r="BZ2" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="BY2" s="58" t="s">
+      <c r="CA2" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="BZ2" s="58" t="s">
+      <c r="CB2" s="58" t="s">
         <v>485</v>
       </c>
-      <c r="CA2" s="58" t="s">
+      <c r="CC2" s="58" t="s">
         <v>486</v>
       </c>
-      <c r="CB2" s="58" t="s">
+      <c r="CD2" s="58" t="s">
         <v>487</v>
       </c>
-      <c r="CC2" s="58" t="s">
+      <c r="CE2" s="58" t="s">
         <v>488</v>
       </c>
-      <c r="CD2" s="58" t="s">
+      <c r="CF2" s="58" t="s">
         <v>489</v>
       </c>
-      <c r="CE2" s="58" t="s">
+      <c r="CG2" s="58" t="s">
         <v>490</v>
       </c>
-      <c r="CF2" s="58" t="s">
+      <c r="CH2" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="CG2" s="58" t="s">
+      <c r="CI2" s="58" t="s">
         <v>492</v>
       </c>
-      <c r="CH2" s="58" t="s">
+      <c r="CJ2" s="58" t="s">
         <v>493</v>
-      </c>
-      <c r="CI2" s="58" t="s">
-        <v>494</v>
-      </c>
-      <c r="CJ2" s="58" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:88" s="15" customFormat="1" ht="57" x14ac:dyDescent="0.2">
@@ -3196,22 +3187,22 @@
         <v>47</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D3" s="86" t="s">
         <v>64</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F3" s="87" t="s">
         <v>285</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H3" s="58" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I3" s="88" t="s">
         <v>288</v>
@@ -3220,28 +3211,28 @@
         <v>289</v>
       </c>
       <c r="K3" s="58" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L3" s="88" t="s">
         <v>291</v>
       </c>
       <c r="M3" s="58" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="N3" s="58" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="O3" s="58" t="s">
         <v>52</v>
       </c>
       <c r="P3" s="58" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>502</v>
+      </c>
+      <c r="R3" s="58" t="s">
         <v>503</v>
-      </c>
-      <c r="Q3" s="58" t="s">
-        <v>504</v>
-      </c>
-      <c r="R3" s="58" t="s">
-        <v>505</v>
       </c>
       <c r="S3" s="58" t="s">
         <v>57</v>
@@ -3256,7 +3247,7 @@
         <v>297</v>
       </c>
       <c r="W3" s="58" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="X3" s="87" t="s">
         <v>299</v>
@@ -3277,7 +3268,7 @@
         <v>43</v>
       </c>
       <c r="AD3" s="58" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AE3" s="90" t="s">
         <v>302</v>
@@ -3286,19 +3277,19 @@
         <v>303</v>
       </c>
       <c r="AG3" s="58" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AH3" s="58" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AI3" s="42" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AJ3" s="58" t="s">
         <v>59</v>
       </c>
       <c r="AK3" s="58" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AL3" s="88" t="s">
         <v>308</v>
@@ -3307,13 +3298,13 @@
         <v>56</v>
       </c>
       <c r="AN3" s="58" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AO3" s="58" t="s">
         <v>46</v>
       </c>
       <c r="AP3" s="58" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AQ3" s="90" t="s">
         <v>313</v>
@@ -3322,7 +3313,7 @@
         <v>63</v>
       </c>
       <c r="AS3" s="42" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AT3" s="58" t="s">
         <v>315</v>
@@ -3331,19 +3322,19 @@
         <v>218</v>
       </c>
       <c r="AV3" s="42" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AW3" s="58" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AX3" s="90" t="s">
         <v>321</v>
       </c>
       <c r="AY3" s="58" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AZ3" s="58" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="BA3" s="42" t="s">
         <v>44</v>
@@ -3367,7 +3358,7 @@
         <v>51</v>
       </c>
       <c r="BH3" s="58" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BI3" s="58" t="s">
         <v>54</v>
@@ -3394,7 +3385,7 @@
         <v>49</v>
       </c>
       <c r="BQ3" s="42" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="BR3" s="63" t="s">
         <v>50</v>
@@ -3972,25 +3963,25 @@
         <v>105</v>
       </c>
       <c r="F10" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="G10" s="40" t="s">
         <v>371</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="H10" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="I10" s="40" t="s">
         <v>372</v>
       </c>
-      <c r="H10" s="40" t="s">
-        <v>408</v>
-      </c>
-      <c r="I10" s="40" t="s">
+      <c r="J10" s="40" t="s">
         <v>373</v>
       </c>
-      <c r="J10" s="40" t="s">
+      <c r="K10" s="40" t="s">
         <v>374</v>
       </c>
-      <c r="K10" s="40" t="s">
+      <c r="L10" s="40" t="s">
         <v>375</v>
-      </c>
-      <c r="L10" s="40" t="s">
-        <v>376</v>
       </c>
       <c r="M10" s="40" t="s">
         <v>199</v>
@@ -4013,17 +4004,17 @@
         <v>100</v>
       </c>
       <c r="U10" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="V10" s="40" t="s">
         <v>377</v>
-      </c>
-      <c r="V10" s="40" t="s">
-        <v>378</v>
       </c>
       <c r="W10" s="40" t="s">
         <v>80</v>
       </c>
       <c r="X10" s="40"/>
       <c r="Y10" s="40" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z10" s="40" t="s">
         <v>82</v>
@@ -4046,7 +4037,7 @@
         <v>95</v>
       </c>
       <c r="AH10" s="79" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AI10" s="40" t="s">
         <v>97</v>
@@ -4056,16 +4047,16 @@
         <v>230</v>
       </c>
       <c r="AL10" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="AM10" s="40" t="s">
         <v>380</v>
-      </c>
-      <c r="AM10" s="40" t="s">
-        <v>381</v>
       </c>
       <c r="AN10" s="40" t="s">
         <v>92</v>
       </c>
       <c r="AO10" s="40" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AP10" s="40" t="s">
         <v>103</v>
@@ -4090,7 +4081,7 @@
         <v>90</v>
       </c>
       <c r="AX10" s="82" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AY10" s="81" t="s">
         <v>274</v>
@@ -4103,14 +4094,14 @@
         <v>101</v>
       </c>
       <c r="BC10" s="81" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BD10" s="82" t="s">
         <v>96</v>
       </c>
       <c r="BE10" s="40"/>
       <c r="BF10" s="40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="BG10" s="40" t="s">
         <v>88</v>
@@ -4126,13 +4117,13 @@
       </c>
       <c r="BK10" s="58"/>
       <c r="BL10" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="BM10" s="40" t="s">
         <v>237</v>
       </c>
       <c r="BN10" s="40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BO10" s="58"/>
       <c r="BP10" s="40" t="s">
@@ -4184,7 +4175,7 @@
         <v>279</v>
       </c>
       <c r="CF10" s="26" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="CG10" s="26" t="s">
         <v>236</v>
@@ -4486,7 +4477,7 @@
         <v>145</v>
       </c>
       <c r="H12" s="68" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I12" s="68" t="s">
         <v>359</v>
@@ -4528,7 +4519,7 @@
         <v>159</v>
       </c>
       <c r="V12" s="68" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="W12" s="69" t="s">
         <v>143</v>
@@ -4540,7 +4531,7 @@
         <v>256</v>
       </c>
       <c r="Z12" s="70" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AA12" s="68" t="s">
         <v>150</v>
@@ -4633,10 +4624,10 @@
         <v>151</v>
       </c>
       <c r="BE12" s="68" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="BF12" s="71" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="BG12" s="69" t="s">
         <v>149</v>
@@ -4734,34 +4725,34 @@
         <v>23</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C13" s="58" t="s">
         <v>162</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="J13" s="58" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O13" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="58" t="s">
         <v>162</v>
@@ -4776,10 +4767,10 @@
         <v>162</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="Z13" s="58" t="s">
         <v>162</v>
@@ -4791,73 +4782,73 @@
         <v>162</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AF13" t="s">
         <v>163</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AI13" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AJ13" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AL13" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AM13" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AN13" s="58" t="s">
         <v>162</v>
       </c>
       <c r="AO13" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AP13" s="58" t="s">
         <v>162</v>
       </c>
       <c r="AR13" s="58" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AS13" t="s">
         <v>282</v>
       </c>
       <c r="AT13" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AU13" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AV13" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AW13" s="58" t="s">
         <v>162</v>
       </c>
       <c r="AX13" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AY13" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AZ13" t="s">
         <v>163</v>
       </c>
       <c r="BA13" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BB13" s="58" t="s">
         <v>162</v>
@@ -4878,7 +4869,7 @@
         <v>163</v>
       </c>
       <c r="BH13" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BI13" t="s">
         <v>163</v>
@@ -4893,7 +4884,7 @@
         <v>162</v>
       </c>
       <c r="BM13" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BN13" s="58" t="s">
         <v>162</v>
@@ -5842,6 +5833,9 @@
       <c r="N18" t="s">
         <v>74</v>
       </c>
+      <c r="O18" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="P18" t="s">
         <v>74</v>
       </c>
@@ -6066,13 +6060,60 @@
       <c r="A19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="R19" s="42"/>
+      <c r="B19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="L19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="O19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="P19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="R19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="S19" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="T19" s="42" t="s">
         <v>75</v>
       </c>
@@ -6103,31 +6144,126 @@
       <c r="AC19" t="s">
         <v>365</v>
       </c>
+      <c r="AD19" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="AE19" t="s">
         <v>366</v>
       </c>
-      <c r="AF19" s="42"/>
-      <c r="AI19" s="42"/>
-      <c r="AK19" s="42"/>
-      <c r="AL19" s="42"/>
+      <c r="AF19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM19" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="AN19" t="s">
         <v>367</v>
       </c>
-      <c r="AO19" s="42"/>
-      <c r="AR19" s="42"/>
-      <c r="AS19" s="42"/>
-      <c r="AV19" s="42"/>
-      <c r="AX19" s="42"/>
-      <c r="AZ19" s="42"/>
-      <c r="BA19" s="42"/>
-      <c r="BB19" s="42"/>
-      <c r="BC19" s="42"/>
-      <c r="BE19" s="42"/>
-      <c r="BJ19" s="42"/>
-      <c r="BK19" s="42"/>
-      <c r="BL19" s="42"/>
-      <c r="BN19" s="42"/>
-      <c r="BQ19" s="42"/>
+      <c r="AO19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BO19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ19" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="BR19" t="s">
         <v>75</v>
       </c>
@@ -6262,10 +6398,10 @@
         <v>163</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>368</v>
+        <v>172</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>368</v>
+        <v>172</v>
       </c>
       <c r="L21" t="s">
         <v>282</v>
@@ -6328,10 +6464,10 @@
         <v>163</v>
       </c>
       <c r="AF21" s="3" t="s">
-        <v>368</v>
+        <v>172</v>
       </c>
       <c r="AG21" s="3" t="s">
-        <v>368</v>
+        <v>172</v>
       </c>
       <c r="AH21" s="42" t="s">
         <v>171</v>
@@ -6343,7 +6479,7 @@
         <v>172</v>
       </c>
       <c r="AK21" s="3" t="s">
-        <v>368</v>
+        <v>172</v>
       </c>
       <c r="AL21" t="s">
         <v>171</v>
@@ -6400,16 +6536,16 @@
         <v>172</v>
       </c>
       <c r="BD21" t="s">
-        <v>368</v>
+        <v>172</v>
       </c>
       <c r="BE21" s="3" t="s">
-        <v>368</v>
+        <v>172</v>
       </c>
       <c r="BF21" t="s">
         <v>172</v>
       </c>
       <c r="BG21" t="s">
-        <v>368</v>
+        <v>172</v>
       </c>
       <c r="BH21" t="s">
         <v>171</v>
@@ -6418,7 +6554,7 @@
         <v>172</v>
       </c>
       <c r="BJ21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BK21" s="42" t="s">
         <v>171</v>
@@ -6509,8 +6645,8 @@
       <c r="C22" t="s">
         <v>171</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>368</v>
+      <c r="D22" s="58" t="s">
+        <v>172</v>
       </c>
       <c r="E22" s="58" t="s">
         <v>173</v>
@@ -6522,10 +6658,10 @@
         <v>282</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>368</v>
+        <v>172</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>368</v>
+        <v>172</v>
       </c>
       <c r="J22" t="s">
         <v>163</v>
@@ -6603,7 +6739,7 @@
         <v>171</v>
       </c>
       <c r="AI22" s="3" t="s">
-        <v>368</v>
+        <v>172</v>
       </c>
       <c r="AJ22" t="s">
         <v>163</v>
@@ -6914,7 +7050,7 @@
         <v>172</v>
       </c>
       <c r="AX23" s="3" t="s">
-        <v>368</v>
+        <v>172</v>
       </c>
       <c r="AY23" t="s">
         <v>171</v>
@@ -7123,7 +7259,7 @@
         <v>282</v>
       </c>
       <c r="AE24" s="3" t="s">
-        <v>368</v>
+        <v>172</v>
       </c>
       <c r="AF24" t="s">
         <v>163</v>
@@ -7153,7 +7289,7 @@
         <v>176</v>
       </c>
       <c r="AO24" s="3" t="s">
-        <v>368</v>
+        <v>172</v>
       </c>
       <c r="AP24" s="42" t="s">
         <v>171</v>
@@ -7452,7 +7588,7 @@
         <v>172</v>
       </c>
       <c r="AZ25" s="3" t="s">
-        <v>368</v>
+        <v>172</v>
       </c>
       <c r="BA25" t="s">
         <v>163</v>
@@ -7911,10 +8047,10 @@
         <v>2018</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G29" s="58" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H29" s="42">
         <v>2012</v>
@@ -7929,7 +8065,7 @@
         <v>2020</v>
       </c>
       <c r="M29" s="58" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N29">
         <v>2007</v>
@@ -7950,7 +8086,7 @@
         <v>2020</v>
       </c>
       <c r="T29" s="42" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="U29" s="42">
         <v>1996</v>
@@ -7965,7 +8101,7 @@
         <v>2011</v>
       </c>
       <c r="Y29" s="42" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Z29" s="43">
         <v>1992</v>
@@ -7989,7 +8125,7 @@
         <v>2002</v>
       </c>
       <c r="AG29" s="58" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AH29">
         <v>2007</v>
@@ -8158,7 +8294,7 @@
         <v>2022</v>
       </c>
       <c r="H30" s="42" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I30" s="42"/>
       <c r="J30" s="42"/>
@@ -8166,7 +8302,7 @@
         <v>2021</v>
       </c>
       <c r="M30" s="58" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="O30" s="42">
         <v>2008</v>
@@ -8183,7 +8319,7 @@
         <v>2002</v>
       </c>
       <c r="V30" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="W30">
         <v>2010</v>
@@ -8192,19 +8328,19 @@
         <v>2018</v>
       </c>
       <c r="Y30" s="42" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Z30" s="43"/>
       <c r="AA30" s="43"/>
       <c r="AB30" s="58" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AC30">
         <v>2008</v>
       </c>
       <c r="AF30" s="42"/>
       <c r="AG30" s="58" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AI30" s="42"/>
       <c r="AK30" s="42">
@@ -8226,7 +8362,7 @@
         <v>1996</v>
       </c>
       <c r="AR30" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AS30" s="42">
         <v>2022</v>
@@ -8247,7 +8383,7 @@
       <c r="AZ30" s="42"/>
       <c r="BA30" s="42"/>
       <c r="BB30" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="BC30" s="42"/>
       <c r="BE30" s="42"/>
@@ -8265,7 +8401,7 @@
         <v>2010</v>
       </c>
       <c r="BN30" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="BQ30" s="42">
         <v>1998</v>
@@ -8281,7 +8417,7 @@
       </c>
       <c r="BV30" s="32"/>
       <c r="BW30" s="32" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="BX30" s="32" t="s">
         <v>265</v>
@@ -8745,52 +8881,52 @@
         <v>163</v>
       </c>
       <c r="C35" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D35" t="s">
         <v>162</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="H35" t="s">
         <v>162</v>
       </c>
       <c r="I35" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="M35" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N35" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="O35" t="s">
         <v>162</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="Q35" t="s">
         <v>162</v>
       </c>
       <c r="R35" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="S35" t="s">
         <v>163</v>
@@ -8799,19 +8935,19 @@
         <v>162</v>
       </c>
       <c r="U35" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="V35" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="Z35" t="s">
         <v>162</v>
@@ -8820,40 +8956,40 @@
         <v>162</v>
       </c>
       <c r="AB35" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AC35" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AD35" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AE35" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AF35" t="s">
         <v>163</v>
       </c>
       <c r="AG35" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AH35" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AI35" t="s">
+        <v>528</v>
+      </c>
+      <c r="AJ35" t="s">
         <v>530</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>532</v>
       </c>
       <c r="AK35" t="s">
         <v>282</v>
       </c>
       <c r="AL35" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AM35" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AN35" t="s">
         <v>162</v>
@@ -8862,40 +8998,40 @@
         <v>162</v>
       </c>
       <c r="AP35" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AQ35" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AR35" t="s">
         <v>162</v>
       </c>
       <c r="AS35" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AT35" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AU35" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AV35" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AW35" t="s">
         <v>162</v>
       </c>
       <c r="AX35" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AY35" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AZ35" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BA35" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BB35" t="s">
         <v>162</v>
@@ -8904,7 +9040,7 @@
         <v>162</v>
       </c>
       <c r="BD35" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="BE35" t="s">
         <v>162</v>
@@ -8913,10 +9049,10 @@
         <v>162</v>
       </c>
       <c r="BG35" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BH35" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="BI35" t="s">
         <v>162</v>
@@ -8931,7 +9067,7 @@
         <v>162</v>
       </c>
       <c r="BM35" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BN35" t="s">
         <v>162</v>
@@ -9011,76 +9147,76 @@
         <v>162</v>
       </c>
       <c r="C36" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D36" t="s">
         <v>163</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="H36" t="s">
         <v>162</v>
       </c>
       <c r="I36" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="M36" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N36" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="O36" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="Q36" t="s">
         <v>163</v>
       </c>
       <c r="R36" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="S36" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="T36" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="U36" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="V36" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="W36" t="s">
         <v>162</v>
       </c>
       <c r="X36" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="Y36" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="Z36" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AA36" s="5" t="s">
         <v>163</v>
@@ -9089,79 +9225,79 @@
         <v>162</v>
       </c>
       <c r="AC36" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AD36" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AE36" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AF36" t="s">
         <v>163</v>
       </c>
       <c r="AG36" t="s">
+        <v>528</v>
+      </c>
+      <c r="AH36" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>528</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>528</v>
+      </c>
+      <c r="AK36" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL36" t="s">
         <v>530</v>
       </c>
-      <c r="AH36" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>530</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>530</v>
-      </c>
-      <c r="AK36" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="AL36" t="s">
-        <v>532</v>
-      </c>
       <c r="AM36" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AN36" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AO36" t="s">
         <v>162</v>
       </c>
       <c r="AP36" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AQ36" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AR36" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AS36" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AT36" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AU36" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AV36" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AW36" t="s">
         <v>162</v>
       </c>
       <c r="AX36" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AY36" t="s">
         <v>162</v>
       </c>
       <c r="AZ36" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BA36" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BB36" t="s">
         <v>162</v>
@@ -9170,40 +9306,40 @@
         <v>162</v>
       </c>
       <c r="BD36" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BE36" t="s">
         <v>162</v>
       </c>
       <c r="BF36" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="BG36" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="BH36" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="BI36" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BJ36" t="s">
         <v>162</v>
       </c>
       <c r="BK36" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BL36" t="s">
         <v>162</v>
       </c>
       <c r="BM36" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BN36" t="s">
         <v>162</v>
       </c>
       <c r="BO36" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="BP36" t="s">
         <v>163</v>
@@ -9274,82 +9410,82 @@
         <v>186</v>
       </c>
       <c r="B37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D37" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="H37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I37" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="M37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="N37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="O37" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="P37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="Q37" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="R37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="S37" t="s">
         <v>163</v>
       </c>
       <c r="T37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="U37" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="V37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="W37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="X37" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="Y37" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="Z37" t="s">
         <v>163</v>
       </c>
       <c r="AA37" s="5" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AB37" t="s">
         <v>163</v>
@@ -9358,25 +9494,25 @@
         <v>163</v>
       </c>
       <c r="AD37" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AE37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AF37" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AG37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AH37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AI37" t="s">
         <v>163</v>
       </c>
       <c r="AJ37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AK37" t="s">
         <v>163</v>
@@ -9388,22 +9524,22 @@
         <v>163</v>
       </c>
       <c r="AN37" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AO37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AP37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AQ37" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AR37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AS37" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AT37" t="s">
         <v>163</v>
@@ -9412,40 +9548,40 @@
         <v>163</v>
       </c>
       <c r="AV37" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AW37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AX37" t="s">
         <v>163</v>
       </c>
       <c r="AY37" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AZ37" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BA37" t="s">
         <v>163</v>
       </c>
       <c r="BB37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BC37" t="s">
         <v>162</v>
       </c>
       <c r="BD37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BE37" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="BF37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BG37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BH37" t="s">
         <v>282</v>
@@ -9454,7 +9590,7 @@
         <v>163</v>
       </c>
       <c r="BJ37" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="BK37" t="s">
         <v>163</v>
@@ -9463,10 +9599,10 @@
         <v>162</v>
       </c>
       <c r="BM37" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BN37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BO37" t="s">
         <v>163</v>
@@ -9540,82 +9676,82 @@
         <v>187</v>
       </c>
       <c r="B38" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C38" t="s">
         <v>163</v>
       </c>
       <c r="D38" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="E38" t="s">
         <v>163</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="H38" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I38" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="J38" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="M38" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="N38" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="O38" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="P38" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="Q38" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="R38" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="S38" t="s">
         <v>163</v>
       </c>
       <c r="T38" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="U38" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="V38" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="W38" t="s">
         <v>163</v>
       </c>
       <c r="X38" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="Y38" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="Z38" t="s">
         <v>163</v>
       </c>
       <c r="AA38" s="5" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AB38" t="s">
         <v>162</v>
@@ -9624,64 +9760,64 @@
         <v>163</v>
       </c>
       <c r="AD38" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AE38" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AF38" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AG38" t="s">
         <v>282</v>
       </c>
       <c r="AH38" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AI38" t="s">
         <v>163</v>
       </c>
       <c r="AJ38" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AK38" t="s">
         <v>163</v>
       </c>
       <c r="AL38" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AM38" t="s">
         <v>163</v>
       </c>
       <c r="AN38" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AO38" t="s">
         <v>162</v>
       </c>
       <c r="AP38" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AQ38" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AR38" t="s">
         <v>163</v>
       </c>
       <c r="AS38" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AT38" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AU38" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AV38" t="s">
         <v>163</v>
       </c>
       <c r="AW38" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AX38" t="s">
         <v>163</v>
@@ -9696,28 +9832,28 @@
         <v>163</v>
       </c>
       <c r="BB38" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BC38" t="s">
         <v>163</v>
       </c>
       <c r="BD38" t="s">
+        <v>528</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>282</v>
+      </c>
+      <c r="BF38" t="s">
         <v>530</v>
-      </c>
-      <c r="BE38" t="s">
-        <v>389</v>
-      </c>
-      <c r="BF38" t="s">
-        <v>532</v>
       </c>
       <c r="BG38" t="s">
         <v>163</v>
       </c>
       <c r="BH38" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="BI38" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BJ38" t="s">
         <v>163</v>
@@ -9729,10 +9865,10 @@
         <v>282</v>
       </c>
       <c r="BM38" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BN38" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BO38" t="s">
         <v>163</v>
@@ -9812,76 +9948,76 @@
         <v>163</v>
       </c>
       <c r="D39" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="H39" t="s">
         <v>162</v>
       </c>
       <c r="I39" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="J39" t="s">
         <v>163</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="M39" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="N39" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="O39" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="P39" t="s">
         <v>162</v>
       </c>
       <c r="Q39" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="R39" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="S39" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="T39" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="U39" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="V39" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="W39" t="s">
         <v>162</v>
       </c>
       <c r="X39" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="Y39" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="Z39" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AA39" s="5" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AB39" t="s">
         <v>162</v>
@@ -9890,58 +10026,58 @@
         <v>163</v>
       </c>
       <c r="AD39" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AE39" t="s">
         <v>163</v>
       </c>
       <c r="AF39" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AG39" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AH39" t="s">
         <v>162</v>
       </c>
       <c r="AI39" t="s">
+        <v>528</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>528</v>
+      </c>
+      <c r="AK39" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL39" t="s">
         <v>530</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>530</v>
-      </c>
-      <c r="AK39" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="AL39" t="s">
-        <v>532</v>
       </c>
       <c r="AM39" t="s">
         <v>163</v>
       </c>
       <c r="AN39" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AO39" t="s">
         <v>162</v>
       </c>
       <c r="AP39" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AQ39" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AR39" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AS39" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AT39" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AU39" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AV39" t="s">
         <v>163</v>
@@ -9950,40 +10086,40 @@
         <v>162</v>
       </c>
       <c r="AX39" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AY39" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AZ39" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="BA39" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BB39" t="s">
         <v>162</v>
       </c>
       <c r="BC39" t="s">
+        <v>528</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>529</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>282</v>
+      </c>
+      <c r="BF39" t="s">
         <v>530</v>
       </c>
-      <c r="BD39" t="s">
-        <v>531</v>
-      </c>
-      <c r="BE39" t="s">
-        <v>389</v>
-      </c>
-      <c r="BF39" t="s">
-        <v>532</v>
-      </c>
       <c r="BG39" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="BH39" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="BI39" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BJ39" t="s">
         <v>162</v>
@@ -9995,13 +10131,13 @@
         <v>162</v>
       </c>
       <c r="BM39" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BN39" t="s">
         <v>162</v>
       </c>
       <c r="BO39" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="BP39" t="s">
         <v>163</v>
@@ -10075,49 +10211,49 @@
         <v>282</v>
       </c>
       <c r="C40" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="D40" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="E40" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="J40" t="s">
         <v>163</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="M40" t="s">
         <v>163</v>
       </c>
       <c r="N40" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="O40" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="P40" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="Q40" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="R40" t="s">
         <v>163</v>
@@ -10129,7 +10265,7 @@
         <v>163</v>
       </c>
       <c r="U40" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="V40" t="s">
         <v>163</v>
@@ -10138,16 +10274,16 @@
         <v>163</v>
       </c>
       <c r="X40" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="Y40" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="Z40" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AA40" s="5" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AB40" t="s">
         <v>163</v>
@@ -10156,13 +10292,13 @@
         <v>163</v>
       </c>
       <c r="AD40" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AE40" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AF40" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AG40" t="s">
         <v>282</v>
@@ -10174,19 +10310,19 @@
         <v>163</v>
       </c>
       <c r="AJ40" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AK40" t="s">
         <v>163</v>
       </c>
       <c r="AL40" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AM40" t="s">
         <v>163</v>
       </c>
       <c r="AN40" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AO40" t="s">
         <v>163</v>
@@ -10195,19 +10331,19 @@
         <v>163</v>
       </c>
       <c r="AQ40" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AR40" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AS40" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AT40" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AU40" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AV40" t="s">
         <v>163</v>
@@ -10228,22 +10364,22 @@
         <v>163</v>
       </c>
       <c r="BB40" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="BC40" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="BD40" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="BE40" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="BF40" t="s">
         <v>163</v>
       </c>
       <c r="BG40" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BH40" t="s">
         <v>282</v>
@@ -10255,19 +10391,19 @@
         <v>163</v>
       </c>
       <c r="BK40" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="BL40" t="s">
         <v>163</v>
       </c>
       <c r="BM40" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="BN40" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BO40" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="BP40" t="s">
         <v>163</v>
@@ -10344,34 +10480,34 @@
         <v>162</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="N41" t="s">
         <v>162</v>
@@ -10380,7 +10516,7 @@
         <v>162</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="Q41" t="s">
         <v>163</v>
@@ -10395,19 +10531,19 @@
         <v>162</v>
       </c>
       <c r="U41" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="Z41" t="s">
         <v>162</v>
@@ -10419,13 +10555,13 @@
         <v>162</v>
       </c>
       <c r="AC41" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AD41" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AE41" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AF41" t="s">
         <v>163</v>
@@ -10434,64 +10570,64 @@
         <v>162</v>
       </c>
       <c r="AH41" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AI41" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AJ41" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AK41" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AL41" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AM41" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AN41" t="s">
         <v>162</v>
       </c>
       <c r="AO41" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AP41" t="s">
         <v>162</v>
       </c>
       <c r="AQ41" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AR41" t="s">
         <v>162</v>
       </c>
       <c r="AS41" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AT41" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AU41" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AV41" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AW41" t="s">
         <v>162</v>
       </c>
       <c r="AX41" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AY41" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AZ41" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BA41" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BB41" t="s">
         <v>162</v>
@@ -10500,7 +10636,7 @@
         <v>162</v>
       </c>
       <c r="BD41" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BE41" t="s">
         <v>162</v>
@@ -10509,10 +10645,10 @@
         <v>162</v>
       </c>
       <c r="BG41" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BH41" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BI41" t="s">
         <v>162</v>
@@ -10521,19 +10657,19 @@
         <v>162</v>
       </c>
       <c r="BK41" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BL41" t="s">
         <v>162</v>
       </c>
       <c r="BM41" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BN41" t="s">
         <v>162</v>
       </c>
       <c r="BO41" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BP41" t="s">
         <v>162</v>
@@ -10610,46 +10746,46 @@
         <v>163</v>
       </c>
       <c r="D42" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E42" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="H42" t="s">
         <v>163</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="M42" t="s">
         <v>163</v>
       </c>
       <c r="N42" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="O42" t="s">
         <v>163</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="Q42" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="R42" t="s">
         <v>163</v>
@@ -10661,19 +10797,19 @@
         <v>163</v>
       </c>
       <c r="U42" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="V42" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="W42" t="s">
         <v>162</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="Y42" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="Z42" t="s">
         <v>163</v>
@@ -10688,10 +10824,10 @@
         <v>162</v>
       </c>
       <c r="AD42" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AE42" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AF42" t="s">
         <v>163</v>
@@ -10700,13 +10836,13 @@
         <v>163</v>
       </c>
       <c r="AH42" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AI42" t="s">
         <v>163</v>
       </c>
       <c r="AJ42" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AK42" t="s">
         <v>282</v>
@@ -10715,7 +10851,7 @@
         <v>163</v>
       </c>
       <c r="AM42" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AN42" s="58" t="s">
         <v>163</v>
@@ -10724,10 +10860,10 @@
         <v>163</v>
       </c>
       <c r="AP42" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AQ42" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AR42" t="s">
         <v>163</v>
@@ -10736,40 +10872,40 @@
         <v>163</v>
       </c>
       <c r="AT42" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AU42" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AV42" t="s">
         <v>163</v>
       </c>
       <c r="AW42" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AX42" t="s">
         <v>163</v>
       </c>
       <c r="AY42" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AZ42" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BA42" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BB42" t="s">
         <v>162</v>
       </c>
       <c r="BC42" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="BD42" t="s">
         <v>163</v>
       </c>
       <c r="BE42" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="BF42" t="s">
         <v>163</v>
@@ -10778,22 +10914,22 @@
         <v>163</v>
       </c>
       <c r="BH42" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BI42" s="58" t="s">
         <v>163</v>
       </c>
       <c r="BJ42" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BK42" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="BL42" t="s">
         <v>163</v>
       </c>
       <c r="BM42" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BN42" t="s">
         <v>163</v>
@@ -10876,34 +11012,34 @@
         <v>162</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="H43" t="s">
         <v>163</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="J43" t="s">
         <v>162</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="N43" t="s">
         <v>162</v>
@@ -10912,7 +11048,7 @@
         <v>162</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="Q43" t="s">
         <v>163</v>
@@ -10927,19 +11063,19 @@
         <v>162</v>
       </c>
       <c r="U43" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="V43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="Y43" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="Z43" t="s">
         <v>163</v>
@@ -10951,10 +11087,10 @@
         <v>162</v>
       </c>
       <c r="AC43" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AD43" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AE43" t="s">
         <v>163</v>
@@ -10963,67 +11099,67 @@
         <v>163</v>
       </c>
       <c r="AG43" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AH43" t="s">
         <v>163</v>
       </c>
       <c r="AI43" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AJ43" t="s">
         <v>163</v>
       </c>
       <c r="AK43" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AL43" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AM43" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AN43" t="s">
         <v>162</v>
       </c>
       <c r="AO43" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AP43" t="s">
         <v>162</v>
       </c>
       <c r="AQ43" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AR43" t="s">
         <v>163</v>
       </c>
       <c r="AS43" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AT43" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AU43" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AV43" t="s">
         <v>162</v>
       </c>
       <c r="AW43" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AX43" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AY43" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AZ43" t="s">
         <v>163</v>
       </c>
       <c r="BA43" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BB43" t="s">
         <v>162</v>
@@ -11032,7 +11168,7 @@
         <v>162</v>
       </c>
       <c r="BD43" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BE43" t="s">
         <v>162</v>
@@ -11044,22 +11180,22 @@
         <v>163</v>
       </c>
       <c r="BH43" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BI43" t="s">
         <v>162</v>
       </c>
       <c r="BJ43" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="BK43" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BL43" t="s">
         <v>162</v>
       </c>
       <c r="BM43" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BN43" t="s">
         <v>162</v>
@@ -11136,37 +11272,37 @@
         <v>192</v>
       </c>
       <c r="B44" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C44" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D44" t="s">
         <v>162</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="H44" t="s">
         <v>163</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="J44" t="s">
         <v>162</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="M44" t="s">
         <v>163</v>
@@ -11178,7 +11314,7 @@
         <v>162</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="Q44" t="s">
         <v>163</v>
@@ -11190,22 +11326,22 @@
         <v>162</v>
       </c>
       <c r="T44" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="U44" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="V44" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="W44" t="s">
         <v>162</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="Y44" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="Z44" t="s">
         <v>162</v>
@@ -11217,10 +11353,10 @@
         <v>162</v>
       </c>
       <c r="AC44" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AD44" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AE44" t="s">
         <v>163</v>
@@ -11232,40 +11368,40 @@
         <v>163</v>
       </c>
       <c r="AH44" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AI44" t="s">
+        <v>528</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>528</v>
+      </c>
+      <c r="AK44" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL44" t="s">
         <v>530</v>
       </c>
-      <c r="AJ44" t="s">
+      <c r="AM44" t="s">
         <v>530</v>
       </c>
-      <c r="AK44" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="AL44" t="s">
-        <v>532</v>
-      </c>
-      <c r="AM44" t="s">
-        <v>532</v>
-      </c>
       <c r="AN44" s="58" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AO44" t="s">
         <v>163</v>
       </c>
       <c r="AP44" t="s">
+        <v>528</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>282</v>
+      </c>
+      <c r="AR44" t="s">
         <v>530</v>
       </c>
-      <c r="AQ44" t="s">
-        <v>389</v>
-      </c>
-      <c r="AR44" t="s">
-        <v>532</v>
-      </c>
       <c r="AS44" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AT44" t="s">
         <v>163</v>
@@ -11280,16 +11416,16 @@
         <v>163</v>
       </c>
       <c r="AX44" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AY44" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AZ44" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="BA44" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="BB44" t="s">
         <v>162</v>
@@ -11298,7 +11434,7 @@
         <v>162</v>
       </c>
       <c r="BD44" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="BE44" t="s">
         <v>162</v>
@@ -11310,13 +11446,13 @@
         <v>163</v>
       </c>
       <c r="BH44" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BI44" t="s">
         <v>163</v>
       </c>
       <c r="BJ44" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="BK44" t="s">
         <v>162</v>
@@ -11325,13 +11461,13 @@
         <v>163</v>
       </c>
       <c r="BM44" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BN44" t="s">
         <v>162</v>
       </c>
       <c r="BO44" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BP44" t="s">
         <v>163</v>
@@ -11402,40 +11538,40 @@
         <v>193</v>
       </c>
       <c r="B45" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C45" t="s">
         <v>162</v>
       </c>
       <c r="D45" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="J45" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="N45" t="s">
         <v>162</v>
@@ -11444,7 +11580,7 @@
         <v>162</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="Q45" t="s">
         <v>162</v>
@@ -11459,19 +11595,19 @@
         <v>162</v>
       </c>
       <c r="U45" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="V45" t="s">
         <v>162</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="Z45" t="s">
         <v>162</v>
@@ -11480,34 +11616,34 @@
         <v>162</v>
       </c>
       <c r="AB45" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AC45" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AD45" s="3" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AE45" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AF45" t="s">
         <v>163</v>
       </c>
       <c r="AG45" s="58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AH45" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AI45" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AJ45" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AK45" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AL45" t="s">
         <v>163</v>
@@ -11519,43 +11655,43 @@
         <v>162</v>
       </c>
       <c r="AO45" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AP45" t="s">
         <v>162</v>
       </c>
       <c r="AQ45" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="AR45" t="s">
         <v>162</v>
       </c>
       <c r="AS45" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AT45" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AU45" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AV45" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AW45" t="s">
         <v>162</v>
       </c>
       <c r="AX45" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AY45" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="AZ45" t="s">
         <v>163</v>
       </c>
       <c r="BA45" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BB45" t="s">
         <v>162</v>
@@ -11573,10 +11709,10 @@
         <v>162</v>
       </c>
       <c r="BG45" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BH45" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BI45" t="s">
         <v>162</v>
@@ -11591,7 +11727,7 @@
         <v>162</v>
       </c>
       <c r="BM45" s="3" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="BN45" t="s">
         <v>163</v>
@@ -11666,18 +11802,18 @@
     <row r="46" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="48" spans="1:88" x14ac:dyDescent="0.15">
       <c r="A48" s="75" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <conditionalFormatting sqref="B13:C13 F13:G13 I13 K13:L13 N13:O13 AD13 AJ13 AQ13:AR13 BG13 BI13 BP13:BQ13 Q13:U13 X13:AB13">
+  <conditionalFormatting sqref="B13:C13 F13:G13 I13 K13:L13 N13:O13 Q13:U13 X13:AB13 AD13 AJ13 AQ13:AR13 BG13 BI13 BP13:BQ13">
     <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" sqref="AR20:AS20 AR29:AS31 AR27:AS27 AR4:AS4 AX14:BA14 BS12:BT12 AU14:AV14 BV20:CJ20 AU6:AV12 BO14 AY11:BA12 BB14 BH14 AS14 BM14 BM6:BM12 BK14 BP6:BQ14 BO6:BO12 AY6:BB9 AR6:AR14 AS6:AS12 BF14 BJ14 BK6:BK12 BL14 AT10 BH11:BH12 BV4:CJ14 BV27:CJ31 AW14 AY29:BQ31 BD14 AY27:BQ27 AY4:BQ4 BE6:BH9 AU4:AW4 AU27:AW27 AU20:BQ20 AU29:AW31 AW6:AW9 AX6:AX12 AW11:AW12 BB11:BB12 BC14 BC6:BC12 BD6:BD12 BE14 BE10:BE12 BG10:BG14 BF10:BF12 BI6:BI14 BJ6:BJ12 BL6:BL12 BN6:BN12 BN14" xr:uid="{867E023D-9480-D642-8D7B-D9C030E60E5B}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" sqref="AR20:AS20 AR29:AS31 AR27:AS27 AR4:AS4 BS12:BT12 BV20:CJ20 AU6:AV12 BH14 AS14 BP6:BQ14 AY6:BB9 AR6:AR14 AS6:AS12 AT10 BH11:BH12 BV4:CJ14 BV27:CJ31 AY29:BQ31 AY27:BQ27 AY4:BQ4 BE6:BH9 AU4:AW4 AU27:AW27 AU20:BQ20 AU29:AW31 AW6:AW9 AX6:AX12 AW11:AW12 AY11:BB12 BC6:BD12 AU14:BF14 BG10:BG14 BE10:BF12 BI6:BI14 BJ6:BO12 BJ14:BO14" xr:uid="{867E023D-9480-D642-8D7B-D9C030E60E5B}">
       <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="AT20 AT29:AT31 AT27 AT14" xr:uid="{0FADE96E-D3E8-7A49-9B89-7D5551E86AFD}">
@@ -11914,7 +12050,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="58" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -12065,7 +12201,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="58" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D46" s="58"/>
     </row>
@@ -12217,7 +12353,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="58" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
@@ -12393,7 +12529,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="50" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D104" s="58"/>
     </row>
@@ -12439,13 +12575,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="38" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D113" s="60"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="38" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D114" s="58"/>
     </row>
@@ -12454,30 +12590,30 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="50" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="58" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D118" s="15"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="58" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D119" s="15"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="50" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D120" s="15"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="58" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D121" s="15"/>
     </row>
@@ -12486,19 +12622,19 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="50" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D123" s="15"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D124" s="15"/>
     </row>
     <row r="125" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="50" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D125" s="91"/>
     </row>
